--- a/doc/air_prop.xlsx
+++ b/doc/air_prop.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18435" windowHeight="10200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18435" windowHeight="10200" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Entrada" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="specificHeat" sheetId="2" r:id="rId3"/>
     <sheet name="viscosidade_dinamica" sheetId="3" r:id="rId4"/>
     <sheet name="condutividade_termica" sheetId="4" r:id="rId5"/>
+    <sheet name="Planilha1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -101,15 +102,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -220,11 +227,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -252,6 +316,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,58 +452,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>123.14999999999998</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>173.14999999999998</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>223.14999999999998</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>293.14999999999998</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>313.14999999999998</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>333.15</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>353.15</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>373.15</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>393.15</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>413.15</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>433.15</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>453.15</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>473.15</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>523.15</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>573.15</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>623.15</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>673.15</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -435,58 +515,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1.1599999999999999E-2</c:v>
+                  <c:v>1.593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>1.8089999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0400000000000001E-2</c:v>
+                  <c:v>2.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4299999999999999E-2</c:v>
+                  <c:v>2.2269999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5700000000000001E-2</c:v>
+                  <c:v>2.4279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7099999999999999E-2</c:v>
+                  <c:v>2.6240000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8500000000000001E-2</c:v>
+                  <c:v>2.8159999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9899999999999999E-2</c:v>
+                  <c:v>3.0030000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1399999999999997E-2</c:v>
+                  <c:v>3.1859999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2800000000000003E-2</c:v>
+                  <c:v>3.3650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4299999999999997E-2</c:v>
+                  <c:v>3.71</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5799999999999998E-2</c:v>
+                  <c:v>4.0410000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.7199999999999997E-2</c:v>
+                  <c:v>4.3570000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8600000000000002E-2</c:v>
+                  <c:v>4.6609999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.2099999999999999E-2</c:v>
+                  <c:v>4.9539999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5400000000000003E-2</c:v>
+                  <c:v>5.2359999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.8500000000000001E-2</c:v>
+                  <c:v>5.5090000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.1499999999999997E-2</c:v>
+                  <c:v>5.774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -812,58 +892,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>123.14999999999998</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>173.14999999999998</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>223.14999999999998</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>293.14999999999998</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>313.14999999999998</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>333.15</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>353.15</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>373.15</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>393.15</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>413.15</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>433.15</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>453.15</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>473.15</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>523.15</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>573.15</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>623.15</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>673.15</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -875,58 +955,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1.1599999999999999E-2</c:v>
+                  <c:v>1.593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>1.8089999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0400000000000001E-2</c:v>
+                  <c:v>2.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4299999999999999E-2</c:v>
+                  <c:v>2.2269999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5700000000000001E-2</c:v>
+                  <c:v>2.4279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7099999999999999E-2</c:v>
+                  <c:v>2.6240000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8500000000000001E-2</c:v>
+                  <c:v>2.8159999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9899999999999999E-2</c:v>
+                  <c:v>3.0030000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1399999999999997E-2</c:v>
+                  <c:v>3.1859999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2800000000000003E-2</c:v>
+                  <c:v>3.3650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4299999999999997E-2</c:v>
+                  <c:v>3.71</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5799999999999998E-2</c:v>
+                  <c:v>4.0410000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.7199999999999997E-2</c:v>
+                  <c:v>4.3570000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8600000000000002E-2</c:v>
+                  <c:v>4.6609999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.2099999999999999E-2</c:v>
+                  <c:v>4.9539999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5400000000000003E-2</c:v>
+                  <c:v>5.2359999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.8500000000000001E-2</c:v>
+                  <c:v>5.5090000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.1499999999999997E-2</c:v>
+                  <c:v>5.774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1252,58 +1332,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>123.14999999999998</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>173.14999999999998</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>223.14999999999998</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>293.14999999999998</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>313.14999999999998</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>333.15</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>353.15</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>373.15</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>393.15</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>413.15</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>433.15</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>453.15</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>473.15</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>523.15</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>573.15</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>623.15</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>673.15</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1315,58 +1395,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>2.7930000000000001</c:v>
+                  <c:v>2.0169999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.98</c:v>
+                  <c:v>1.7649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.534</c:v>
+                  <c:v>1.569</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2929999999999999</c:v>
+                  <c:v>1.4119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2050000000000001</c:v>
+                  <c:v>1.284</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.127</c:v>
+                  <c:v>1.177</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0669999999999999</c:v>
+                  <c:v>1.0860000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0089999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94599999999999995</c:v>
+                  <c:v>0.94130000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.89800000000000002</c:v>
+                  <c:v>0.88239999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.85399999999999998</c:v>
+                  <c:v>0.78439999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.81499999999999995</c:v>
+                  <c:v>0.70599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.77900000000000003</c:v>
+                  <c:v>0.64180000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.746</c:v>
+                  <c:v>0.58830000000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.67500000000000004</c:v>
+                  <c:v>0.54300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.61599999999999999</c:v>
+                  <c:v>0.50429999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.56599999999999995</c:v>
+                  <c:v>0.47060000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.52400000000000002</c:v>
+                  <c:v>0.44119999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1744,58 +1824,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>123.14999999999998</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>173.14999999999998</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>223.14999999999998</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>293.14999999999998</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>313.14999999999998</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>333.15</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>353.15</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>373.15</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>393.15</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>413.15</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>433.15</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>453.15</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>473.15</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>523.15</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>573.15</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>623.15</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>673.15</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1807,58 +1887,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>2.7930000000000001</c:v>
+                  <c:v>2.0169999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.98</c:v>
+                  <c:v>1.7649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.534</c:v>
+                  <c:v>1.569</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2929999999999999</c:v>
+                  <c:v>1.4119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2050000000000001</c:v>
+                  <c:v>1.284</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.127</c:v>
+                  <c:v>1.177</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0669999999999999</c:v>
+                  <c:v>1.0860000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0089999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94599999999999995</c:v>
+                  <c:v>0.94130000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.89800000000000002</c:v>
+                  <c:v>0.88239999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.85399999999999998</c:v>
+                  <c:v>0.78439999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.81499999999999995</c:v>
+                  <c:v>0.70599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.77900000000000003</c:v>
+                  <c:v>0.64180000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.746</c:v>
+                  <c:v>0.58830000000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.67500000000000004</c:v>
+                  <c:v>0.54300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.61599999999999999</c:v>
+                  <c:v>0.50429999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.56599999999999995</c:v>
+                  <c:v>0.47060000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.52400000000000002</c:v>
+                  <c:v>0.44119999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2386,8 +2466,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.13532147807366776"/>
-                  <c:y val="6.8046790054126394E-2"/>
+                  <c:x val="-0.19230804014666705"/>
+                  <c:y val="-1.1487858403132082E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="0.000000000000000E+00" sourceLinked="0"/>
@@ -2424,126 +2504,228 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Entrada!$B$3:$B$20</c:f>
+              <c:f>Entrada!$B$3:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>123.14999999999998</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>173.14999999999998</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>223.14999999999998</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>293.14999999999998</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>313.14999999999998</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>333.15</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>353.15</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>373.15</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>393.15</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>413.15</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>433.15</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>453.15</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>473.15</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>523.15</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>573.15</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>623.15</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>673.15</c:v>
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Entrada!$C$3:$C$20</c:f>
+              <c:f>Entrada!$C$3:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>1.026</c:v>
+                  <c:v>1.0023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0089999999999999</c:v>
+                  <c:v>1.0024999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0049999999999999</c:v>
+                  <c:v>1.0026999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0049999999999999</c:v>
+                  <c:v>1.0031000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0049999999999999</c:v>
+                  <c:v>1.0038</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0049999999999999</c:v>
+                  <c:v>1.0048999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0089999999999999</c:v>
+                  <c:v>1.0063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0089999999999999</c:v>
+                  <c:v>1.0082</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0089999999999999</c:v>
+                  <c:v>1.0105999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0129999999999999</c:v>
+                  <c:v>1.0135000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0129999999999999</c:v>
+                  <c:v>1.0206</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0169999999999999</c:v>
+                  <c:v>1.0295000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.022</c:v>
+                  <c:v>1.0398000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.026</c:v>
+                  <c:v>1.0510999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.034</c:v>
+                  <c:v>1.0629</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0469999999999999</c:v>
+                  <c:v>1.075</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0549999999999999</c:v>
+                  <c:v>1.087</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0680000000000001</c:v>
+                  <c:v>1.0987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1101000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1209</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1313</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1411</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1501999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1589</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.167</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1746000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1817</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1883999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1946000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2004999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2112000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2206999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2293000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2558,17 +2740,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>specificHeat!$B$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Teste da curva</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2595,126 +2766,228 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>specificHeat!$B$39:$B$56</c:f>
+              <c:f>specificHeat!$B$39:$B$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>123.14999999999998</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>173.14999999999998</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>223.14999999999998</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>293.14999999999998</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>313.14999999999998</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>333.15</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>353.15</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>373.15</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>393.15</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>413.15</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>433.15</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>453.15</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>473.15</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>523.15</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>573.15</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>623.15</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>673.15</c:v>
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>specificHeat!$C$39:$C$56</c:f>
+              <c:f>specificHeat!$C$39:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>1.0254286825658903</c:v>
+                  <c:v>1.0048080968404929</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0105104024672593</c:v>
+                  <c:v>1.0029547054208081</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.004642473336268</c:v>
+                  <c:v>1.001963265533423</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0040045759983216</c:v>
+                  <c:v>1.0017679334816432</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0046685470861692</c:v>
+                  <c:v>1.0023056525524137</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.005713302874327</c:v>
+                  <c:v>1.0035160983710532</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0070803462650231</c:v>
+                  <c:v>1.0053416242559883</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0087333682125448</c:v>
+                  <c:v>1.0077272065734875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0106541735221506</c:v>
+                  <c:v>1.0106203900923958</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.012838606648983</c:v>
+                  <c:v>1.0139712333388688</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0152924774969752</c:v>
+                  <c:v>1.0218583740340919</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0180274872177661</c:v>
+                  <c:v>1.0310372954945188</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0210571540096085</c:v>
+                  <c:v>1.0411933873754771</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0243927389162812</c:v>
+                  <c:v>1.0520470135037561</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0340758339542564</c:v>
+                  <c:v>1.0633517632291045</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0453822215539081</c:v>
+                  <c:v>1.0748927027757269</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0572165099449902</c:v>
+                  <c:v>1.0864846265937811</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0672810979002907</c:v>
+                  <c:v>1.0979703087108745</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1092187540835619</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1201234499488419</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1306006171756544</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1405874616163774</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.150040425458323</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1589334385752359</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.16725616987879</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1750122786700845</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1822176659911419</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1888987259764052</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1950905972042332</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2008354140483997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2111769091668911</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2203337535872296</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2287165087871945</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2366797987148996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2444663530366948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2722,7 +2995,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AD6C-499E-9910-39A063E5534F}"/>
+              <c16:uniqueId val="{00000001-1CCB-4360-A76C-FFFD17DB406A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2803,6 +3076,7 @@
         <c:axId val="568437048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3022,8 +3296,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.12516521241329684"/>
-                  <c:y val="-0.64305385429109729"/>
+                  <c:x val="4.0821765145608119E-2"/>
+                  <c:y val="0.5157480344858224"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="0.00000000000000E+00" sourceLinked="0"/>
@@ -3060,126 +3334,228 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Entrada!$B$3:$B$20</c:f>
+              <c:f>Entrada!$B$3:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>123.14999999999998</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>173.14999999999998</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>223.14999999999998</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>293.14999999999998</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>313.14999999999998</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>333.15</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>353.15</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>373.15</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>393.15</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>413.15</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>433.15</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>453.15</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>473.15</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>523.15</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>573.15</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>623.15</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>673.15</c:v>
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Entrada!$G$3:$G$20</c:f>
+              <c:f>Entrada!$G$3:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>2.2930530000000002E-5</c:v>
+                  <c:v>1.1819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1523599999999999E-5</c:v>
+                  <c:v>1.329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9183399999999997E-6</c:v>
+                  <c:v>1.4670000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.74531E-6</c:v>
+                  <c:v>1.599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1331500000000004E-6</c:v>
+                  <c:v>1.7250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6064000000000003E-6</c:v>
+                  <c:v>1.8460000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2009999999999995E-6</c:v>
+                  <c:v>1.962</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.83E-6</c:v>
+                  <c:v>2.0750000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.53528E-6</c:v>
+                  <c:v>2.181</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2898999999999999E-6</c:v>
+                  <c:v>2.286</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0752200000000002E-6</c:v>
+                  <c:v>2.4849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8907999999999998E-6</c:v>
+                  <c:v>2.67</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.7215899999999999E-6</c:v>
+                  <c:v>2.8490000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5740599999999996E-6</c:v>
+                  <c:v>3.0169999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.28925E-6</c:v>
+                  <c:v>3.1779999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0780000000000001E-6</c:v>
+                  <c:v>3.3319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.1125999999999992E-7</c:v>
+                  <c:v>3.4820000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.8075999999999996E-7</c:v>
+                  <c:v>3.6240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8969999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.1529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.2759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.5110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.6260000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.7359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.952</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.0570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.2640000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.6459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.8289999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3194,17 +3570,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>viscosidade_dinamica!$B$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Teste da curva</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -3231,126 +3596,228 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>viscosidade_dinamica!$B$39:$B$56</c:f>
+              <c:f>viscosidade_dinamica!$B$39:$B$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>123.14999999999998</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>173.14999999999998</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>223.14999999999998</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>293.14999999999998</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>313.14999999999998</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>333.15</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>353.15</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>373.15</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>393.15</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>413.15</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>433.15</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>453.15</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>473.15</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>523.15</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>573.15</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>623.15</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>673.15</c:v>
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>viscosidade_dinamica!$C$39:$C$56</c:f>
+              <c:f>viscosidade_dinamica!$C$39:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>2.2780312902656119E-5</c:v>
+                  <c:v>1.1879475118034861</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1957690024980006E-5</c:v>
+                  <c:v>1.3296310123986093</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7509173059464403E-6</c:v>
+                  <c:v>1.4656858161418036</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4641754280142003E-6</c:v>
+                  <c:v>1.5964380688791979</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9609848758178858E-6</c:v>
+                  <c:v>1.7221991819758762</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5775077190980837E-6</c:v>
+                  <c:v>1.8432661794118435</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2625548922810059E-6</c:v>
+                  <c:v>1.9599220448779948</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9807604906837885E-6</c:v>
+                  <c:v>2.0724360688720838</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7103387360201289E-6</c:v>
+                  <c:v>2.181064195794689</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4408409419052196E-6</c:v>
+                  <c:v>2.2860493710451837</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.1709124793607893E-6</c:v>
+                  <c:v>2.4859997356971086</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9060497423200364E-6</c:v>
+                  <c:v>2.6739839356454991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6563571131327247E-6</c:v>
+                  <c:v>2.8515129738306468</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4343039280709837E-6</c:v>
+                  <c:v>3.0199231903864678</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0769517206033824E-6</c:v>
+                  <c:v>3.1803873697114815</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0579808623164313E-6</c:v>
+                  <c:v>3.3339258475397808</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1682283577653683E-6</c:v>
+                  <c:v>3.4814176180120104</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.7758247937128901E-7</c:v>
+                  <c:v>3.6236114407463393</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7611369479094403</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8945157512874551</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0241725493569831</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.1504462343560471</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.2736009993550663</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3938374453278417</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.511303688222517</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.626106466032569</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.7383222458677707</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8480083310251718</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.9552139680600709</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.059991453856993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.2625530533469789</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4565945798528794</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.6437771415424507</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.8268769306646302</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.0101406498207908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3358,7 +3825,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-06AC-4183-B64A-ACBBDF8C68B1}"/>
+              <c16:uniqueId val="{00000001-6893-4926-87C0-C631390A0F5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3587,44 +4054,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.20527777777777781"/>
-          <c:y val="3.1531531531531529E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3724,126 +4153,228 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Entrada!$B$3:$B$20</c:f>
+              <c:f>Entrada!$B$3:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>123.14999999999998</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>173.14999999999998</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>223.14999999999998</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>293.14999999999998</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>313.14999999999998</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>333.15</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>353.15</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>373.15</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>393.15</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>413.15</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>433.15</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>453.15</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>473.15</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>523.15</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>573.15</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>623.15</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>673.15</c:v>
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Entrada!$D$3:$D$20</c:f>
+              <c:f>Entrada!$D$3:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>1.1599999999999999E-2</c:v>
+                  <c:v>1.593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>1.8089999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0400000000000001E-2</c:v>
+                  <c:v>2.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4299999999999999E-2</c:v>
+                  <c:v>2.2269999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5700000000000001E-2</c:v>
+                  <c:v>2.4279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7099999999999999E-2</c:v>
+                  <c:v>2.6240000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8500000000000001E-2</c:v>
+                  <c:v>2.8159999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9899999999999999E-2</c:v>
+                  <c:v>3.0030000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1399999999999997E-2</c:v>
+                  <c:v>3.1859999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2800000000000003E-2</c:v>
+                  <c:v>3.3650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4299999999999997E-2</c:v>
+                  <c:v>3.71</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5799999999999998E-2</c:v>
+                  <c:v>4.0410000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.7199999999999997E-2</c:v>
+                  <c:v>4.3570000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8600000000000002E-2</c:v>
+                  <c:v>4.6609999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.2099999999999999E-2</c:v>
+                  <c:v>4.9539999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5400000000000003E-2</c:v>
+                  <c:v>5.2359999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.8500000000000001E-2</c:v>
+                  <c:v>5.5090000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.1499999999999997E-2</c:v>
+                  <c:v>5.774</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.03</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.2759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.52</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.7539999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.9850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.2089999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.4269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.64</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.8490000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.0540000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.2530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.8309999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.1989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.5540000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.8989999999999991</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.233000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3852,6 +4383,268 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EF26-4DBA-9A09-03D052378994}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>condutividade_termica!$B$39:$B$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>condutividade_termica!$C$39:$C$73</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>1.5916050251430547</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8090281086959621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0208386061002326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2272631336678095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4285204780952929</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6248217478982077</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8163705248452682</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0033630153926469</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1859882021182422</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3644279951559466</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7094445870888104</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0397323778843779</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.356507486924774</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.660887412177666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9538958760928127</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2364676714986134</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.5094535074986677</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.7736248553683209</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.0296787944512173</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.2782428580558589</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.5198798793521435</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.7550928372679353</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.9843297023855975</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.2079882828385609</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.4264210702078683</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.6399400854187229</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.8488217246370526</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.0533116051660496</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.2536294113427253</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.4499737404344692</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.8314599964638916</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.1991215540698743</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.5542823383332696</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.8983940872899385</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.233191420620352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6F56-49B2-BA88-FB41F42D22B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8557,15 +9350,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2162175</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9138,15 +9931,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="56.7109375" customWidth="1"/>
     <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
@@ -9186,457 +9979,843 @@
     </row>
     <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>-150</v>
-      </c>
-      <c r="B3" s="9">
-        <f>A3+273.15</f>
-        <v>123.14999999999998</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1.026</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="E3" s="3">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2.7930000000000001</v>
-      </c>
-      <c r="G3">
-        <f>F3*E3*10^-6</f>
-        <v>2.2930530000000002E-5</v>
+        <f>B3-273.15</f>
+        <v>-98.149999999999977</v>
+      </c>
+      <c r="B3" s="4">
+        <v>175</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.0023</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.593</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.0169999999999999</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.1819999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>-100</v>
-      </c>
-      <c r="B4" s="9">
-        <f t="shared" ref="B4:B20" si="0">A4+273.15</f>
-        <v>173.14999999999998</v>
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A37" si="0">B4-273.15</f>
+        <v>-73.149999999999977</v>
+      </c>
+      <c r="B4" s="4">
+        <v>200</v>
       </c>
       <c r="C4" s="1">
+        <v>1.0024999999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.8089999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.753</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>-48.149999999999977</v>
+      </c>
+      <c r="B5" s="4">
+        <v>225</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.0026999999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.569</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.4670000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>-23.149999999999977</v>
+      </c>
+      <c r="B6" s="4">
+        <v>250</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.0031000000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.2269999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.1319999999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8500000000000227</v>
+      </c>
+      <c r="B7" s="4">
+        <v>275</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.0038</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.4279999999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.343</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.284</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.7250000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>26.850000000000023</v>
+      </c>
+      <c r="B8" s="4">
+        <v>300</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.0048999999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.6240000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.177</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.8460000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>51.850000000000023</v>
+      </c>
+      <c r="B9" s="4">
+        <v>325</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.0063</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.8159999999999998</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.8069999999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>76.850000000000023</v>
+      </c>
+      <c r="B10" s="4">
+        <v>350</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.0082</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.0030000000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.056</v>
+      </c>
+      <c r="F10" s="1">
         <v>1.0089999999999999</v>
       </c>
-      <c r="D4" s="1">
-        <v>1.6E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5.82</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.98</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G20" si="1">F4*E4*10^-6</f>
-        <v>1.1523599999999999E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>-50</v>
-      </c>
-      <c r="B5" s="9">
-        <f t="shared" si="0"/>
-        <v>223.14999999999998</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4.51</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.534</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>6.9183399999999997E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9">
-        <f t="shared" si="0"/>
-        <v>273.14999999999998</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.4299999999999999E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.2929999999999999</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>4.74531E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>20</v>
-      </c>
-      <c r="B7" s="9">
-        <f t="shared" si="0"/>
-        <v>293.14999999999998</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3.43</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>4.1331500000000004E-6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>40</v>
-      </c>
-      <c r="B8" s="9">
-        <f t="shared" si="0"/>
-        <v>313.14999999999998</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.7099999999999999E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1.127</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>3.6064000000000003E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>60</v>
-      </c>
-      <c r="B9" s="9">
-        <f t="shared" si="0"/>
-        <v>333.15</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.0089999999999999</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2.8500000000000001E-2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>3.2009999999999995E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>80</v>
-      </c>
-      <c r="B10" s="9">
-        <f t="shared" si="0"/>
-        <v>353.15</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.0089999999999999</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2.9899999999999999E-2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2.83</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>2.83E-6</v>
+      <c r="G10" s="1">
+        <v>2.0750000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>100</v>
-      </c>
-      <c r="B11" s="9">
-        <f t="shared" si="0"/>
-        <v>373.15</v>
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>101.85000000000002</v>
+      </c>
+      <c r="B11" s="4">
+        <v>375</v>
       </c>
       <c r="C11" s="1">
-        <v>1.0089999999999999</v>
+        <v>1.0105999999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>3.1399999999999997E-2</v>
+        <v>3.1859999999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>2.68</v>
+        <v>2.3170000000000002</v>
       </c>
       <c r="F11" s="1">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>2.53528E-6</v>
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.181</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>120</v>
-      </c>
-      <c r="B12" s="9">
-        <f t="shared" si="0"/>
-        <v>393.15</v>
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>126.85000000000002</v>
+      </c>
+      <c r="B12" s="4">
+        <v>400</v>
       </c>
       <c r="C12" s="1">
-        <v>1.0129999999999999</v>
+        <v>1.0135000000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>3.2800000000000003E-2</v>
+        <v>3.3650000000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>2.5499999999999998</v>
+        <v>2.5910000000000002</v>
       </c>
       <c r="F12" s="1">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>2.2898999999999999E-6</v>
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2.286</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>140</v>
-      </c>
-      <c r="B13" s="9">
-        <f t="shared" si="0"/>
-        <v>413.15</v>
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>176.85000000000002</v>
+      </c>
+      <c r="B13" s="4">
+        <v>450</v>
       </c>
       <c r="C13" s="1">
-        <v>1.0129999999999999</v>
+        <v>1.0206</v>
       </c>
       <c r="D13" s="1">
-        <v>3.4299999999999997E-2</v>
+        <v>3.71</v>
       </c>
       <c r="E13" s="1">
-        <v>2.4300000000000002</v>
+        <v>3.1680000000000001</v>
       </c>
       <c r="F13" s="1">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>2.0752200000000002E-6</v>
+        <v>0.78439999999999999</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.4849999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>160</v>
-      </c>
-      <c r="B14" s="9">
-        <f t="shared" si="0"/>
-        <v>433.15</v>
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>226.85000000000002</v>
+      </c>
+      <c r="B14" s="4">
+        <v>500</v>
       </c>
       <c r="C14" s="1">
-        <v>1.0169999999999999</v>
+        <v>1.0295000000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>3.5799999999999998E-2</v>
+        <v>4.0410000000000004</v>
       </c>
       <c r="E14" s="1">
-        <v>2.3199999999999998</v>
+        <v>3.782</v>
       </c>
       <c r="F14" s="1">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>1.8907999999999998E-6</v>
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.67</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>180</v>
-      </c>
-      <c r="B15" s="9">
-        <f t="shared" si="0"/>
-        <v>453.15</v>
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>276.85000000000002</v>
+      </c>
+      <c r="B15" s="4">
+        <v>550</v>
       </c>
       <c r="C15" s="1">
-        <v>1.022</v>
+        <v>1.0398000000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>3.7199999999999997E-2</v>
+        <v>4.3570000000000002</v>
       </c>
       <c r="E15" s="1">
-        <v>2.21</v>
+        <v>4.4390000000000001</v>
       </c>
       <c r="F15" s="1">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>1.7215899999999999E-6</v>
+        <v>0.64180000000000004</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2.8490000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>200</v>
-      </c>
-      <c r="B16" s="9">
-        <f t="shared" si="0"/>
-        <v>473.15</v>
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>326.85000000000002</v>
+      </c>
+      <c r="B16" s="4">
+        <v>600</v>
       </c>
       <c r="C16" s="1">
-        <v>1.026</v>
+        <v>1.0510999999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>3.8600000000000002E-2</v>
+        <v>4.6609999999999996</v>
       </c>
       <c r="E16" s="1">
-        <v>2.11</v>
+        <v>5.1280000000000001</v>
       </c>
       <c r="F16" s="1">
-        <v>0.746</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>1.5740599999999996E-6</v>
+        <v>0.58830000000000005</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3.0169999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>250</v>
-      </c>
-      <c r="B17" s="9">
-        <f t="shared" si="0"/>
-        <v>523.15</v>
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>376.85</v>
+      </c>
+      <c r="B17" s="4">
+        <v>650</v>
       </c>
       <c r="C17" s="1">
-        <v>1.034</v>
+        <v>1.0629</v>
       </c>
       <c r="D17" s="1">
-        <v>4.2099999999999999E-2</v>
+        <v>4.9539999999999997</v>
       </c>
       <c r="E17" s="1">
-        <v>1.91</v>
+        <v>5.8529999999999998</v>
       </c>
       <c r="F17" s="1">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>1.28925E-6</v>
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3.1779999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>300</v>
-      </c>
-      <c r="B18" s="9">
-        <f t="shared" si="0"/>
-        <v>573.15</v>
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>426.85</v>
+      </c>
+      <c r="B18" s="4">
+        <v>700</v>
       </c>
       <c r="C18" s="1">
-        <v>1.0469999999999999</v>
+        <v>1.075</v>
       </c>
       <c r="D18" s="1">
-        <v>4.5400000000000003E-2</v>
+        <v>5.2359999999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>1.75</v>
+        <v>6.6070000000000002</v>
       </c>
       <c r="F18" s="1">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>1.0780000000000001E-6</v>
+        <v>0.50429999999999997</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3.3319999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>350</v>
-      </c>
-      <c r="B19" s="9">
-        <f t="shared" si="0"/>
-        <v>623.15</v>
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>476.85</v>
+      </c>
+      <c r="B19" s="4">
+        <v>750</v>
       </c>
       <c r="C19" s="1">
-        <v>1.0549999999999999</v>
+        <v>1.087</v>
       </c>
       <c r="D19" s="1">
-        <v>4.8500000000000001E-2</v>
+        <v>5.5090000000000003</v>
       </c>
       <c r="E19" s="1">
-        <v>1.61</v>
+        <v>7.399</v>
       </c>
       <c r="F19" s="1">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>9.1125999999999992E-7</v>
+        <v>0.47060000000000002</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3.4820000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>400</v>
-      </c>
-      <c r="B20" s="9">
-        <f t="shared" si="0"/>
-        <v>673.15</v>
-      </c>
-      <c r="C20" s="6">
-        <v>1.0680000000000001</v>
-      </c>
-      <c r="D20" s="6">
-        <v>5.1499999999999997E-2</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1.49</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>7.8075999999999996E-7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="8"/>
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>526.85</v>
+      </c>
+      <c r="B20" s="4">
+        <v>800</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.0987</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5.774</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8.2140000000000004</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.44119999999999998</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3.6240000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>576.85</v>
+      </c>
+      <c r="B21" s="4">
+        <v>850</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.1101000000000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6.03</v>
+      </c>
+      <c r="E21" s="1">
+        <v>9.0609999999999999</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.4153</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3.7629999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>626.85</v>
+      </c>
+      <c r="B22" s="4">
+        <v>900</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.1209</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6.2759999999999998</v>
+      </c>
+      <c r="E22" s="1">
+        <v>9.9359999999999999</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.39219999999999999</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3.8969999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>676.85</v>
+      </c>
+      <c r="B23" s="4">
+        <v>950</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.1313</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6.52</v>
+      </c>
+      <c r="E23" s="1">
+        <v>10.83</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.37159999999999999</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4.0259999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>726.85</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.1411</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6.7539999999999996</v>
+      </c>
+      <c r="E24" s="1">
+        <v>11.76</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4.1529999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>776.85</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1050</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.1501999999999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6.9850000000000003</v>
+      </c>
+      <c r="E25" s="1">
+        <v>12.72</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.3362</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4.2759999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>826.85</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1100</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.1589</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7.2089999999999996</v>
+      </c>
+      <c r="E26" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.32090000000000002</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4.3959999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>876.85</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1150</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.167</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7.4269999999999996</v>
+      </c>
+      <c r="E27" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.30690000000000001</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4.5110000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>926.85</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.1746000000000001</v>
+      </c>
+      <c r="D28" s="1">
+        <v>7.64</v>
+      </c>
+      <c r="E28" s="1">
+        <v>15.73</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4.6260000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>976.85</v>
+      </c>
+      <c r="B29" s="16">
+        <v>1250</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1.1817</v>
+      </c>
+      <c r="D29" s="11">
+        <v>7.8490000000000002</v>
+      </c>
+      <c r="E29" s="11">
+        <v>16.77</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0.28239999999999998</v>
+      </c>
+      <c r="G29" s="11">
+        <v>4.7359999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>1026.8499999999999</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1300</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.1883999999999999</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8.0540000000000003</v>
+      </c>
+      <c r="E30" s="1">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.27150000000000002</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4.8460000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>1076.8499999999999</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.1946000000000001</v>
+      </c>
+      <c r="D31" s="1">
+        <v>8.2530000000000001</v>
+      </c>
+      <c r="E31" s="1">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.26150000000000001</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4.952</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>1126.8499999999999</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1400</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.2004999999999999</v>
+      </c>
+      <c r="D32" s="1">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="E32" s="1">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.25209999999999999</v>
+      </c>
+      <c r="G32" s="1">
+        <v>5.0570000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>1226.8499999999999</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1500</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.2112000000000001</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8.8309999999999995</v>
+      </c>
+      <c r="E33" s="1">
+        <v>22.36</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.23530000000000001</v>
+      </c>
+      <c r="G33" s="1">
+        <v>5.2640000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <f t="shared" si="0"/>
+        <v>1326.85</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1600</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.2206999999999999</v>
+      </c>
+      <c r="D34" s="1">
+        <v>9.1989999999999998</v>
+      </c>
+      <c r="E34" s="1">
+        <v>24.74</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.22059999999999999</v>
+      </c>
+      <c r="G34" s="1">
+        <v>5.4569999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <f t="shared" si="0"/>
+        <v>1426.85</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1700</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.2293000000000001</v>
+      </c>
+      <c r="D35" s="1">
+        <v>9.5540000000000003</v>
+      </c>
+      <c r="E35" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.20760000000000001</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5.6459999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <f t="shared" si="0"/>
+        <v>1526.85</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1800</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="D36" s="1">
+        <v>9.8989999999999991</v>
+      </c>
+      <c r="E36" s="1">
+        <v>29.72</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.1961</v>
+      </c>
+      <c r="G36" s="1">
+        <v>5.8289999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <f t="shared" si="0"/>
+        <v>1626.85</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1900</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1.244</v>
+      </c>
+      <c r="D37" s="6">
+        <v>10.233000000000001</v>
+      </c>
+      <c r="E37" s="6">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="G37" s="6">
+        <v>6.008</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -9995,10 +11174,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A35:F57"/>
+  <dimension ref="A35:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:F56"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10028,22 +11207,22 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>-1.06098986696626E-14</v>
+        <v>-4.6630626746932897E-17</v>
       </c>
       <c r="B36" s="10">
-        <v>2.2390587399447999E-11</v>
+        <v>3.4973770994779599E-13</v>
       </c>
       <c r="C36" s="10">
-        <v>-1.8608417264085399E-8</v>
+        <v>-9.7848031544930297E-10</v>
       </c>
       <c r="D36" s="10">
-        <v>7.96623779186635E-6</v>
+        <v>1.1962533729344901E-6</v>
       </c>
       <c r="E36" s="10">
-        <v>-1.6943592116276699E-3</v>
+        <v>-4.2835054195167302E-4</v>
       </c>
       <c r="F36" s="10">
-        <v>1.1431788809382</v>
+        <v>1.0480578628820001</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10053,311 +11232,599 @@
     </row>
     <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>-150</v>
-      </c>
-      <c r="B39" s="9">
-        <f>A39+273.15</f>
-        <v>123.14999999999998</v>
+        <f>B39-273.15</f>
+        <v>-98.149999999999977</v>
+      </c>
+      <c r="B39" s="4">
+        <v>175</v>
       </c>
       <c r="C39" s="10">
         <f>$A$36*POWER(B39,5)+$B$36*POWER(B39,4)+$C$36*POWER(B39,3)+$D$36*POWER(B39,2)+$E$36*POWER(B39,1)+$F$36</f>
-        <v>1.0254286825658903</v>
+        <v>1.0048080968404929</v>
       </c>
       <c r="D39" s="10">
         <f>$A$36*POWER(A39,5)+$B$36*POWER(C39,4)+$C$36*POWER(C39,3)+$D$36*POWER(C39,2)+$E$36*POWER(C39,1)+$F$36</f>
-        <v>1.1422554820753956</v>
+        <v>1.0476290843209055</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>-100</v>
-      </c>
-      <c r="B40" s="9">
-        <f t="shared" ref="B40:B56" si="0">A40+273.15</f>
-        <v>173.14999999999998</v>
+      <c r="A40" s="2">
+        <f t="shared" ref="A40:A73" si="0">B40-273.15</f>
+        <v>-73.149999999999977</v>
+      </c>
+      <c r="B40" s="4">
+        <v>200</v>
       </c>
       <c r="C40" s="10">
-        <f t="shared" ref="C40:C56" si="1">$A$36*POWER(B40,5)+$B$36*POWER(B40,4)+$C$36*POWER(B40,3)+$D$36*POWER(B40,2)+$E$36*POWER(B40,1)+$F$36</f>
-        <v>1.0105104024672593</v>
+        <f t="shared" ref="C40:C73" si="1">$A$36*POWER(B40,5)+$B$36*POWER(B40,4)+$C$36*POWER(B40,3)+$D$36*POWER(B40,2)+$E$36*POWER(B40,1)+$F$36</f>
+        <v>1.0029547054208081</v>
       </c>
       <c r="D40" s="10">
-        <f t="shared" ref="D40:D56" si="2">$A$36*POWER(A40,5)+$B$36*POWER(C40,4)+$C$36*POWER(C40,3)+$D$36*POWER(C40,2)+$E$36*POWER(C40,1)+$F$36</f>
-        <v>1.1415809277125673</v>
+        <f t="shared" ref="D40:D73" si="2">$A$36*POWER(A40,5)+$B$36*POWER(C40,4)+$C$36*POWER(C40,3)+$D$36*POWER(C40,2)+$E$36*POWER(C40,1)+$F$36</f>
+        <v>1.0476295467024124</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>-50</v>
-      </c>
-      <c r="B41" s="9">
-        <f t="shared" si="0"/>
-        <v>223.14999999999998</v>
+      <c r="A41" s="2">
+        <f t="shared" si="0"/>
+        <v>-48.149999999999977</v>
+      </c>
+      <c r="B41" s="4">
+        <v>225</v>
       </c>
       <c r="C41" s="10">
         <f t="shared" si="1"/>
-        <v>1.004642473336268</v>
+        <v>1.001963265533423</v>
       </c>
       <c r="D41" s="10">
         <f t="shared" si="2"/>
-        <v>1.1414879928320421</v>
+        <v>1.0476298834138846</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>0</v>
-      </c>
-      <c r="B42" s="9">
-        <f t="shared" si="0"/>
-        <v>273.14999999999998</v>
+      <c r="A42" s="2">
+        <f t="shared" si="0"/>
+        <v>-23.149999999999977</v>
+      </c>
+      <c r="B42" s="4">
+        <v>250</v>
       </c>
       <c r="C42" s="10">
         <f t="shared" si="1"/>
-        <v>1.0040045759983216</v>
+        <v>1.0017679334816432</v>
       </c>
       <c r="D42" s="10">
         <f t="shared" si="2"/>
-        <v>1.1414857478945748</v>
+        <v>1.0476299548584072</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>20</v>
-      </c>
-      <c r="B43" s="9">
-        <f t="shared" si="0"/>
-        <v>293.14999999999998</v>
+      <c r="A43" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8500000000000227</v>
+      </c>
+      <c r="B43" s="4">
+        <v>275</v>
       </c>
       <c r="C43" s="10">
         <f t="shared" si="1"/>
-        <v>1.0046685470861692</v>
+        <v>1.0023056525524137</v>
       </c>
       <c r="D43" s="10">
         <f t="shared" si="2"/>
-        <v>1.1414845995246203</v>
+        <v>1.0476297255036375</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>40</v>
-      </c>
-      <c r="B44" s="9">
-        <f t="shared" si="0"/>
-        <v>313.14999999999998</v>
+      <c r="A44" s="2">
+        <f t="shared" si="0"/>
+        <v>26.850000000000023</v>
+      </c>
+      <c r="B44" s="4">
+        <v>300</v>
       </c>
       <c r="C44" s="10">
         <f t="shared" si="1"/>
-        <v>1.005713302874327</v>
+        <v>1.0035160983710532</v>
       </c>
       <c r="D44" s="10">
         <f t="shared" si="2"/>
-        <v>1.1414817935041948</v>
+        <v>1.0476292092586557</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>60</v>
-      </c>
-      <c r="B45" s="9">
-        <f t="shared" si="0"/>
-        <v>333.15</v>
+      <c r="A45" s="2">
+        <f t="shared" si="0"/>
+        <v>51.850000000000023</v>
+      </c>
+      <c r="B45" s="4">
+        <v>325</v>
       </c>
       <c r="C45" s="10">
         <f t="shared" si="1"/>
-        <v>1.0070803462650231</v>
+        <v>1.0053416242559883</v>
       </c>
       <c r="D45" s="10">
         <f t="shared" si="2"/>
-        <v>1.1414723352805918</v>
+        <v>1.0476284148509798</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>80</v>
-      </c>
-      <c r="B46" s="9">
-        <f t="shared" si="0"/>
-        <v>353.15</v>
+      <c r="A46" s="2">
+        <f t="shared" si="0"/>
+        <v>76.850000000000023</v>
+      </c>
+      <c r="B46" s="4">
+        <v>350</v>
       </c>
       <c r="C46" s="10">
         <f t="shared" si="1"/>
-        <v>1.0087333682125448</v>
+        <v>1.0077272065734875</v>
       </c>
       <c r="D46" s="10">
         <f t="shared" si="2"/>
-        <v>1.1414430446602515</v>
+        <v>1.0476272912037254</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>100</v>
-      </c>
-      <c r="B47" s="9">
-        <f t="shared" si="0"/>
-        <v>373.15</v>
+      <c r="A47" s="2">
+        <f t="shared" si="0"/>
+        <v>101.85000000000002</v>
+      </c>
+      <c r="B47" s="4">
+        <v>375</v>
       </c>
       <c r="C47" s="10">
         <f t="shared" si="1"/>
-        <v>1.0106541735221506</v>
+        <v>1.0106203900923958</v>
       </c>
       <c r="D47" s="10">
         <f t="shared" si="2"/>
-        <v>1.141368488446048</v>
+        <v>1.0476256728129005</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>120</v>
-      </c>
-      <c r="B48" s="9">
-        <f t="shared" si="0"/>
-        <v>393.15</v>
+      <c r="A48" s="2">
+        <f t="shared" si="0"/>
+        <v>126.85000000000002</v>
+      </c>
+      <c r="B48" s="4">
+        <v>400</v>
       </c>
       <c r="C48" s="10">
         <f t="shared" si="1"/>
-        <v>1.012838606648983</v>
+        <v>1.0139712333388688</v>
       </c>
       <c r="D48" s="10">
         <f t="shared" si="2"/>
-        <v>1.1412069130753937</v>
+        <v>1.0476232251248165</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>140</v>
-      </c>
-      <c r="B49" s="9">
-        <f t="shared" si="0"/>
-        <v>413.15</v>
+      <c r="A49" s="2">
+        <f t="shared" si="0"/>
+        <v>176.85000000000002</v>
+      </c>
+      <c r="B49" s="4">
+        <v>450</v>
       </c>
       <c r="C49" s="10">
         <f t="shared" si="1"/>
-        <v>1.0152924774969752</v>
+        <v>1.0218583740340919</v>
       </c>
       <c r="D49" s="10">
         <f t="shared" si="2"/>
-        <v>1.1408961772585915</v>
+        <v>1.0476133306588453</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>160</v>
-      </c>
-      <c r="B50" s="9">
-        <f t="shared" si="0"/>
-        <v>433.15</v>
+      <c r="A50" s="2">
+        <f t="shared" si="0"/>
+        <v>226.85000000000002</v>
+      </c>
+      <c r="B50" s="4">
+        <v>500</v>
       </c>
       <c r="C50" s="10">
         <f t="shared" si="1"/>
-        <v>1.0180274872177661</v>
+        <v>1.0310372954945188</v>
       </c>
       <c r="D50" s="10">
         <f t="shared" si="2"/>
-        <v>1.1403496846170316</v>
+        <v>1.0475894747303773</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>180</v>
-      </c>
-      <c r="B51" s="9">
-        <f t="shared" si="0"/>
-        <v>453.15</v>
+      <c r="A51" s="2">
+        <f t="shared" si="0"/>
+        <v>276.85000000000002</v>
+      </c>
+      <c r="B51" s="4">
+        <v>550</v>
       </c>
       <c r="C51" s="10">
         <f t="shared" si="1"/>
-        <v>1.0210571540096085</v>
+        <v>1.0411933873754771</v>
       </c>
       <c r="D51" s="10">
         <f t="shared" si="2"/>
-        <v>1.1394523163208772</v>
+        <v>1.0475373236389636</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
-        <v>200</v>
-      </c>
-      <c r="B52" s="9">
-        <f t="shared" si="0"/>
-        <v>473.15</v>
+      <c r="A52" s="2">
+        <f t="shared" si="0"/>
+        <v>326.85000000000002</v>
+      </c>
+      <c r="B52" s="4">
+        <v>600</v>
       </c>
       <c r="C52" s="10">
         <f t="shared" si="1"/>
-        <v>1.0243927389162812</v>
+        <v>1.0520470135037561</v>
       </c>
       <c r="D52" s="10">
         <f t="shared" si="2"/>
-        <v>1.1380563637258887</v>
+        <v>1.0474345951506434</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>250</v>
-      </c>
-      <c r="B53" s="9">
-        <f t="shared" si="0"/>
-        <v>523.15</v>
+      <c r="A53" s="2">
+        <f t="shared" si="0"/>
+        <v>376.85</v>
+      </c>
+      <c r="B53" s="4">
+        <v>650</v>
       </c>
       <c r="C53" s="10">
         <f t="shared" si="1"/>
-        <v>1.0340758339542564</v>
+        <v>1.0633517632291045</v>
       </c>
       <c r="D53" s="10">
         <f t="shared" si="2"/>
-        <v>1.1310740537034405</v>
+        <v>1.0472493105925678</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>300</v>
-      </c>
-      <c r="B54" s="9">
-        <f t="shared" si="0"/>
-        <v>573.15</v>
+      <c r="A54" s="2">
+        <f t="shared" si="0"/>
+        <v>426.85</v>
+      </c>
+      <c r="B54" s="4">
+        <v>700</v>
       </c>
       <c r="C54" s="10">
         <f t="shared" si="1"/>
-        <v>1.0453822215539081</v>
+        <v>1.0748927027757269</v>
       </c>
       <c r="D54" s="10">
         <f t="shared" si="2"/>
-        <v>1.1156342586380554</v>
+        <v>1.0469380469498688</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>350</v>
-      </c>
-      <c r="B55" s="9">
-        <f t="shared" si="0"/>
-        <v>623.15</v>
+      <c r="A55" s="2">
+        <f t="shared" si="0"/>
+        <v>476.85</v>
+      </c>
+      <c r="B55" s="4">
+        <v>750</v>
       </c>
       <c r="C55" s="10">
         <f t="shared" si="1"/>
-        <v>1.0572165099449902</v>
+        <v>1.0864846265937811</v>
       </c>
       <c r="D55" s="10">
         <f t="shared" si="2"/>
-        <v>1.0856712811937508</v>
+        <v>1.0464441889640559</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>400</v>
-      </c>
-      <c r="B56" s="9">
-        <f t="shared" si="0"/>
-        <v>673.15</v>
+      <c r="A56" s="2">
+        <f t="shared" si="0"/>
+        <v>526.85</v>
+      </c>
+      <c r="B56" s="4">
+        <v>800</v>
       </c>
       <c r="C56" s="10">
         <f t="shared" si="1"/>
-        <v>1.0672810979002907</v>
+        <v>1.0979703087108745</v>
       </c>
       <c r="D56" s="10">
         <f t="shared" si="2"/>
-        <v>1.0327342126608856</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>1.0456961812323544</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <f>B57-273.15</f>
+        <v>576.85</v>
+      </c>
+      <c r="B57" s="4">
+        <v>850</v>
+      </c>
+      <c r="C57" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1092187540835619</v>
+      </c>
+      <c r="D57" s="10">
+        <f t="shared" si="2"/>
+        <v>1.044605780307525</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <f t="shared" si="0"/>
+        <v>626.85</v>
+      </c>
+      <c r="B58" s="4">
+        <v>900</v>
+      </c>
+      <c r="C58" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1201234499488419</v>
+      </c>
+      <c r="D58" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0430663067978063</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <f t="shared" si="0"/>
+        <v>676.85</v>
+      </c>
+      <c r="B59" s="4">
+        <v>950</v>
+      </c>
+      <c r="C59" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1306006171756544</v>
+      </c>
+      <c r="D59" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0409508974667168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <f t="shared" si="0"/>
+        <v>726.85</v>
+      </c>
+      <c r="B60" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C60" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1405874616163774</v>
+      </c>
+      <c r="D60" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0381107573325263</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <f t="shared" si="0"/>
+        <v>776.85</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1050</v>
+      </c>
+      <c r="C61" s="10">
+        <f t="shared" si="1"/>
+        <v>1.150040425458323</v>
+      </c>
+      <c r="D61" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0343734117672794</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <f t="shared" si="0"/>
+        <v>826.85</v>
+      </c>
+      <c r="B62" s="4">
+        <v>1100</v>
+      </c>
+      <c r="C62" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1589334385752359</v>
+      </c>
+      <c r="D62" s="10">
+        <f t="shared" si="2"/>
+        <v>1.029540958595297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <f t="shared" si="0"/>
+        <v>876.85</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1150</v>
+      </c>
+      <c r="C63" s="10">
+        <f t="shared" si="1"/>
+        <v>1.16725616987879</v>
+      </c>
+      <c r="D63" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0233883201911402</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <f t="shared" si="0"/>
+        <v>926.85</v>
+      </c>
+      <c r="B64" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C64" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1750122786700845</v>
+      </c>
+      <c r="D64" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0156614955770387</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <f t="shared" si="0"/>
+        <v>976.85</v>
+      </c>
+      <c r="B65" s="16">
+        <v>1250</v>
+      </c>
+      <c r="C65" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1822176659911419</v>
+      </c>
+      <c r="D65" s="10">
+        <f t="shared" si="2"/>
+        <v>1.006075812519823</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <f t="shared" si="0"/>
+        <v>1026.8499999999999</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1300</v>
+      </c>
+      <c r="C66" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1888987259764052</v>
+      </c>
+      <c r="D66" s="10">
+        <f t="shared" si="2"/>
+        <v>0.99431417962741298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <f t="shared" si="0"/>
+        <v>1076.8499999999999</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C67" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1950905972042332</v>
+      </c>
+      <c r="D67" s="10">
+        <f t="shared" si="2"/>
+        <v>0.98002533844492201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <f t="shared" si="0"/>
+        <v>1126.8499999999999</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1400</v>
+      </c>
+      <c r="C68" s="10">
+        <f t="shared" si="1"/>
+        <v>1.2008354140483997</v>
+      </c>
+      <c r="D68" s="10">
+        <f t="shared" si="2"/>
+        <v>0.9628221155504485</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <f t="shared" si="0"/>
+        <v>1226.8499999999999</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1500</v>
+      </c>
+      <c r="C69" s="10">
+        <f t="shared" si="1"/>
+        <v>1.2111769091668911</v>
+      </c>
+      <c r="D69" s="10">
+        <f t="shared" si="2"/>
+        <v>0.91793376867593679</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <f t="shared" si="0"/>
+        <v>1326.85</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1600</v>
+      </c>
+      <c r="C70" s="10">
+        <f t="shared" si="1"/>
+        <v>1.2203337535872296</v>
+      </c>
+      <c r="D70" s="10">
+        <f t="shared" si="2"/>
+        <v>0.85576703191471903</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <f t="shared" si="0"/>
+        <v>1426.85</v>
+      </c>
+      <c r="B71" s="4">
+        <v>1700</v>
+      </c>
+      <c r="C71" s="10">
+        <f t="shared" si="1"/>
+        <v>1.2287165087871945</v>
+      </c>
+      <c r="D71" s="10">
+        <f t="shared" si="2"/>
+        <v>0.77175329280500415</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <f t="shared" si="0"/>
+        <v>1526.85</v>
+      </c>
+      <c r="B72" s="4">
+        <v>1800</v>
+      </c>
+      <c r="C72" s="10">
+        <f t="shared" si="1"/>
+        <v>1.2366797987148996</v>
+      </c>
+      <c r="D72" s="10">
+        <f t="shared" si="2"/>
+        <v>0.66058150055446996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <f t="shared" si="0"/>
+        <v>1626.85</v>
+      </c>
+      <c r="B73" s="5">
+        <v>1900</v>
+      </c>
+      <c r="C73" s="10">
+        <f t="shared" si="1"/>
+        <v>1.2444663530366948</v>
+      </c>
+      <c r="D73" s="10">
+        <f t="shared" si="2"/>
+        <v>0.51614223308003804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -10366,10 +11833,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A35:F57"/>
+  <dimension ref="A35:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:F56"/>
+    <sheetView topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10396,22 +11863,22 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>-5.8412356638440902E-18</v>
+        <v>2.9618855933253601E-16</v>
       </c>
       <c r="B36" s="10">
-        <v>1.3266529556099199E-14</v>
+        <v>-1.9048901074932802E-12</v>
       </c>
       <c r="C36" s="10">
-        <v>-1.17795003220707E-11</v>
+        <v>4.9638351758027902E-9</v>
       </c>
       <c r="D36" s="10">
-        <v>5.1382810426097596E-9</v>
+        <v>-7.0467746075056303E-6</v>
       </c>
       <c r="E36" s="10">
-        <v>-1.11853193802525E-6</v>
+        <v>7.8341785688677695E-3</v>
       </c>
       <c r="F36" s="10">
-        <v>1.01715208657198E-4</v>
+        <v>7.9086453518612404E-3</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10421,311 +11888,599 @@
     </row>
     <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>-150</v>
-      </c>
-      <c r="B39" s="9">
-        <f>A39+273.15</f>
-        <v>123.14999999999998</v>
+        <f>B39-273.15</f>
+        <v>-98.149999999999977</v>
+      </c>
+      <c r="B39" s="4">
+        <v>175</v>
       </c>
       <c r="C39" s="10">
         <f>$A$36*POWER(B39,5)+$B$36*POWER(B39,4)+$C$36*POWER(B39,3)+$D$36*POWER(B39,2)+$E$36*POWER(B39,1)+$F$36</f>
-        <v>2.2780312902656119E-5</v>
+        <v>1.1879475118034861</v>
       </c>
       <c r="D39" s="10">
         <f>$A$36*POWER(A39,5)+$B$36*POWER(C39,4)+$C$36*POWER(C39,3)+$D$36*POWER(C39,2)+$E$36*POWER(C39,1)+$F$36</f>
-        <v>1.0215875200991629E-4</v>
+        <v>1.720260420093557E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>-100</v>
-      </c>
-      <c r="B40" s="9">
-        <f t="shared" ref="B40:B56" si="0">A40+273.15</f>
-        <v>173.14999999999998</v>
+      <c r="A40" s="2">
+        <f t="shared" ref="A40:A73" si="0">B40-273.15</f>
+        <v>-73.149999999999977</v>
+      </c>
+      <c r="B40" s="4">
+        <v>200</v>
       </c>
       <c r="C40" s="10">
-        <f t="shared" ref="C40:C56" si="1">$A$36*POWER(B40,5)+$B$36*POWER(B40,4)+$C$36*POWER(B40,3)+$D$36*POWER(B40,2)+$E$36*POWER(B40,1)+$F$36</f>
-        <v>1.1957690024980006E-5</v>
+        <f t="shared" ref="C40:C73" si="1">$A$36*POWER(B40,5)+$B$36*POWER(B40,4)+$C$36*POWER(B40,3)+$D$36*POWER(B40,2)+$E$36*POWER(B40,1)+$F$36</f>
+        <v>1.3296310123986093</v>
       </c>
       <c r="D40" s="10">
-        <f t="shared" ref="D40:D56" si="2">$A$36*POWER(A40,5)+$B$36*POWER(C40,4)+$C$36*POWER(C40,3)+$D$36*POWER(C40,2)+$E$36*POWER(C40,1)+$F$36</f>
-        <v>1.0177360763877898E-4</v>
+        <f t="shared" ref="D40:D73" si="2">$A$36*POWER(A40,5)+$B$36*POWER(C40,4)+$C$36*POWER(C40,3)+$D$36*POWER(C40,2)+$E$36*POWER(C40,1)+$F$36</f>
+        <v>1.8312145317531496E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>-50</v>
-      </c>
-      <c r="B41" s="9">
-        <f t="shared" si="0"/>
-        <v>223.14999999999998</v>
+      <c r="A41" s="2">
+        <f t="shared" si="0"/>
+        <v>-48.149999999999977</v>
+      </c>
+      <c r="B41" s="4">
+        <v>225</v>
       </c>
       <c r="C41" s="10">
         <f t="shared" si="1"/>
-        <v>6.7509173059464403E-6</v>
+        <v>1.4656858161418036</v>
       </c>
       <c r="D41" s="10">
         <f t="shared" si="2"/>
-        <v>1.0171702649222657E-4</v>
+        <v>1.9375890598040457E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>0</v>
-      </c>
-      <c r="B42" s="9">
-        <f t="shared" si="0"/>
-        <v>273.14999999999998</v>
+      <c r="A42" s="2">
+        <f t="shared" si="0"/>
+        <v>-23.149999999999977</v>
+      </c>
+      <c r="B42" s="4">
+        <v>250</v>
       </c>
       <c r="C42" s="10">
         <f t="shared" si="1"/>
-        <v>4.4641754280142003E-6</v>
+        <v>1.5964380688791979</v>
       </c>
       <c r="D42" s="10">
         <f t="shared" si="2"/>
-        <v>1.0171520366387531E-4</v>
+        <v>2.0397484960259085E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>20</v>
-      </c>
-      <c r="B43" s="9">
-        <f t="shared" si="0"/>
-        <v>293.14999999999998</v>
+      <c r="A43" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8500000000000227</v>
+      </c>
+      <c r="B43" s="4">
+        <v>275</v>
       </c>
       <c r="C43" s="10">
         <f t="shared" si="1"/>
-        <v>3.9609848758178858E-6</v>
+        <v>1.7221991819758762</v>
       </c>
       <c r="D43" s="10">
         <f t="shared" si="2"/>
-        <v>1.0171518553475586E-4</v>
+        <v>2.1379786090853066E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>40</v>
-      </c>
-      <c r="B44" s="9">
-        <f t="shared" si="0"/>
-        <v>313.14999999999998</v>
+      <c r="A44" s="2">
+        <f t="shared" si="0"/>
+        <v>26.850000000000023</v>
+      </c>
+      <c r="B44" s="4">
+        <v>300</v>
       </c>
       <c r="C44" s="10">
         <f t="shared" si="1"/>
-        <v>3.5775077190980837E-6</v>
+        <v>1.8432661794118435</v>
       </c>
       <c r="D44" s="10">
         <f t="shared" si="2"/>
-        <v>1.0171460651310945E-4</v>
+        <v>2.2325214615486831E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>60</v>
-      </c>
-      <c r="B45" s="9">
-        <f t="shared" si="0"/>
-        <v>333.15</v>
+      <c r="A45" s="2">
+        <f t="shared" si="0"/>
+        <v>51.850000000000023</v>
+      </c>
+      <c r="B45" s="4">
+        <v>325</v>
       </c>
       <c r="C45" s="10">
         <f t="shared" si="1"/>
-        <v>3.2625548922810059E-6</v>
+        <v>1.9599220448779948</v>
       </c>
       <c r="D45" s="10">
         <f t="shared" si="2"/>
-        <v>1.01710662863074E-4</v>
+        <v>2.3236104236526778E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>80</v>
-      </c>
-      <c r="B46" s="9">
-        <f t="shared" si="0"/>
-        <v>353.15</v>
+      <c r="A46" s="2">
+        <f t="shared" si="0"/>
+        <v>76.850000000000023</v>
+      </c>
+      <c r="B46" s="4">
+        <v>350</v>
       </c>
       <c r="C46" s="10">
         <f t="shared" si="1"/>
-        <v>2.9807604906837885E-6</v>
+        <v>2.0724360688720838</v>
       </c>
       <c r="D46" s="10">
         <f t="shared" si="2"/>
-        <v>1.0169606476209896E-4</v>
+        <v>2.411505184096693E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>100</v>
-      </c>
-      <c r="B47" s="9">
-        <f t="shared" si="0"/>
-        <v>373.15</v>
+      <c r="A47" s="2">
+        <f t="shared" si="0"/>
+        <v>101.85000000000002</v>
+      </c>
+      <c r="B47" s="4">
+        <v>375</v>
       </c>
       <c r="C47" s="10">
         <f t="shared" si="1"/>
-        <v>2.7103387360201289E-6</v>
+        <v>2.181064195794689</v>
       </c>
       <c r="D47" s="10">
         <f t="shared" si="2"/>
-        <v>1.0165679326895916E-4</v>
+        <v>2.4965267581039202E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>120</v>
-      </c>
-      <c r="B48" s="9">
-        <f t="shared" si="0"/>
-        <v>393.15</v>
+      <c r="A48" s="2">
+        <f t="shared" si="0"/>
+        <v>126.85000000000002</v>
+      </c>
+      <c r="B48" s="4">
+        <v>400</v>
       </c>
       <c r="C48" s="10">
         <f t="shared" si="1"/>
-        <v>2.4408409419052196E-6</v>
+        <v>2.2860493710451837</v>
       </c>
       <c r="D48" s="10">
         <f t="shared" si="2"/>
-        <v>1.0156985729176892E-4</v>
+        <v>2.5790924929793846E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>140</v>
-      </c>
-      <c r="B49" s="9">
-        <f t="shared" si="0"/>
-        <v>413.15</v>
+      <c r="A49" s="2">
+        <f t="shared" si="0"/>
+        <v>176.85000000000002</v>
+      </c>
+      <c r="B49" s="4">
+        <v>450</v>
       </c>
       <c r="C49" s="10">
         <f t="shared" si="1"/>
-        <v>2.1709124793607893E-6</v>
+        <v>2.4859997356971086</v>
       </c>
       <c r="D49" s="10">
         <f t="shared" si="2"/>
-        <v>1.0140105055599595E-4</v>
+        <v>2.7392175124704599E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>160</v>
-      </c>
-      <c r="B50" s="9">
-        <f t="shared" si="0"/>
-        <v>433.15</v>
+      <c r="A50" s="2">
+        <f t="shared" si="0"/>
+        <v>226.85000000000002</v>
+      </c>
+      <c r="B50" s="4">
+        <v>500</v>
       </c>
       <c r="C50" s="10">
         <f t="shared" si="1"/>
-        <v>1.9060497423200364E-6</v>
+        <v>2.6739839356454991</v>
       </c>
       <c r="D50" s="10">
         <f t="shared" si="2"/>
-        <v>1.0110270857247542E-4</v>
+        <v>2.8984757358444479E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>180</v>
-      </c>
-      <c r="B51" s="9">
-        <f t="shared" si="0"/>
-        <v>453.15</v>
+      <c r="A51" s="2">
+        <f t="shared" si="0"/>
+        <v>276.85000000000002</v>
+      </c>
+      <c r="B51" s="4">
+        <v>550</v>
       </c>
       <c r="C51" s="10">
         <f t="shared" si="1"/>
-        <v>1.6563571131327247E-6</v>
+        <v>2.8515129738306468</v>
       </c>
       <c r="D51" s="10">
         <f t="shared" si="2"/>
-        <v>1.0061146560542383E-4</v>
+        <v>3.0672439762372484E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
-        <v>200</v>
-      </c>
-      <c r="B52" s="9">
-        <f t="shared" si="0"/>
-        <v>473.15</v>
+      <c r="A52" s="2">
+        <f t="shared" si="0"/>
+        <v>326.85000000000002</v>
+      </c>
+      <c r="B52" s="4">
+        <v>600</v>
       </c>
       <c r="C52" s="10">
         <f t="shared" si="1"/>
-        <v>1.4343039280709837E-6</v>
+        <v>3.0199231903864678</v>
       </c>
       <c r="D52" s="10">
         <f t="shared" si="2"/>
-        <v>9.9846011640453147E-5</v>
+        <v>3.2608002149348031E-2</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>250</v>
-      </c>
-      <c r="B53" s="9">
-        <f t="shared" si="0"/>
-        <v>523.15</v>
+      <c r="A53" s="2">
+        <f t="shared" si="0"/>
+        <v>376.85</v>
+      </c>
+      <c r="B53" s="4">
+        <v>650</v>
       </c>
       <c r="C53" s="10">
         <f t="shared" si="1"/>
-        <v>1.0769517206033824E-6</v>
+        <v>3.1803873697114815</v>
       </c>
       <c r="D53" s="10">
         <f t="shared" si="2"/>
-        <v>9.6010875749620375E-5</v>
+        <v>3.5004433644913437E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>300</v>
-      </c>
-      <c r="B54" s="9">
-        <f t="shared" si="0"/>
-        <v>573.15</v>
+      <c r="A54" s="2">
+        <f t="shared" si="0"/>
+        <v>426.85</v>
+      </c>
+      <c r="B54" s="4">
+        <v>700</v>
       </c>
       <c r="C54" s="10">
         <f t="shared" si="1"/>
-        <v>1.0579808623164313E-6</v>
+        <v>3.3339258475397808</v>
       </c>
       <c r="D54" s="10">
         <f t="shared" si="2"/>
-        <v>8.7521004810671492E-5</v>
+        <v>3.8146129612565152E-2</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>350</v>
-      </c>
-      <c r="B55" s="9">
-        <f t="shared" si="0"/>
-        <v>623.15</v>
+      <c r="A55" s="2">
+        <f t="shared" si="0"/>
+        <v>476.85</v>
+      </c>
+      <c r="B55" s="4">
+        <v>750</v>
       </c>
       <c r="C55" s="10">
         <f t="shared" si="1"/>
-        <v>1.1682283577653683E-6</v>
+        <v>3.4814176180120104</v>
       </c>
       <c r="D55" s="10">
         <f t="shared" si="2"/>
-        <v>7.1035942412301151E-5</v>
+        <v>4.2400087994208566E-2</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>400</v>
-      </c>
-      <c r="B56" s="9">
-        <f t="shared" si="0"/>
-        <v>673.15</v>
+      <c r="A56" s="2">
+        <f t="shared" si="0"/>
+        <v>526.85</v>
+      </c>
+      <c r="B56" s="4">
+        <v>800</v>
       </c>
       <c r="C56" s="10">
         <f t="shared" si="1"/>
-        <v>6.7758247937128901E-7</v>
+        <v>3.6236114407463393</v>
       </c>
       <c r="D56" s="10">
         <f t="shared" si="2"/>
-        <v>4.1900954701536876E-5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>4.8227105165447995E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <f t="shared" si="0"/>
+        <v>576.85</v>
+      </c>
+      <c r="B57" s="4">
+        <v>850</v>
+      </c>
+      <c r="C57" s="10">
+        <f t="shared" si="1"/>
+        <v>3.7611369479094403</v>
+      </c>
+      <c r="D57" s="10">
+        <f t="shared" si="2"/>
+        <v>5.6192971386919262E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <f t="shared" si="0"/>
+        <v>626.85</v>
+      </c>
+      <c r="B58" s="4">
+        <v>900</v>
+      </c>
+      <c r="C58" s="10">
+        <f t="shared" si="1"/>
+        <v>3.8945157512874551</v>
+      </c>
+      <c r="D58" s="10">
+        <f t="shared" si="2"/>
+        <v>6.6979665917178813E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <f t="shared" si="0"/>
+        <v>676.85</v>
+      </c>
+      <c r="B59" s="4">
+        <v>950</v>
+      </c>
+      <c r="C59" s="10">
+        <f t="shared" si="1"/>
+        <v>4.0241725493569831</v>
+      </c>
+      <c r="D59" s="10">
+        <f t="shared" si="2"/>
+        <v>8.1396551839481246E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <f t="shared" si="0"/>
+        <v>726.85</v>
+      </c>
+      <c r="B60" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C60" s="10">
+        <f t="shared" si="1"/>
+        <v>4.1504462343560471</v>
+      </c>
+      <c r="D60" s="10">
+        <f t="shared" si="2"/>
+        <v>0.10039157064386862</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <f t="shared" si="0"/>
+        <v>776.85</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1050</v>
+      </c>
+      <c r="C61" s="10">
+        <f t="shared" si="1"/>
+        <v>4.2736009993550663</v>
+      </c>
+      <c r="D61" s="10">
+        <f t="shared" si="2"/>
+        <v>0.12506243659713323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <f t="shared" si="0"/>
+        <v>826.85</v>
+      </c>
+      <c r="B62" s="4">
+        <v>1100</v>
+      </c>
+      <c r="C62" s="10">
+        <f t="shared" si="1"/>
+        <v>4.3938374453278417</v>
+      </c>
+      <c r="D62" s="10">
+        <f t="shared" si="2"/>
+        <v>0.15666783092616698</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <f t="shared" si="0"/>
+        <v>876.85</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1150</v>
+      </c>
+      <c r="C63" s="10">
+        <f t="shared" si="1"/>
+        <v>4.511303688222517</v>
+      </c>
+      <c r="D63" s="10">
+        <f t="shared" si="2"/>
+        <v>0.19663859583475668</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <f t="shared" si="0"/>
+        <v>926.85</v>
+      </c>
+      <c r="B64" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C64" s="10">
+        <f t="shared" si="1"/>
+        <v>4.626106466032569</v>
+      </c>
+      <c r="D64" s="10">
+        <f t="shared" si="2"/>
+        <v>0.24658892836979357</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <f t="shared" si="0"/>
+        <v>976.85</v>
+      </c>
+      <c r="B65" s="16">
+        <v>1250</v>
+      </c>
+      <c r="C65" s="10">
+        <f t="shared" si="1"/>
+        <v>4.7383222458677707</v>
+      </c>
+      <c r="D65" s="10">
+        <f t="shared" si="2"/>
+        <v>0.3083275741499259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <f t="shared" si="0"/>
+        <v>1026.8499999999999</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1300</v>
+      </c>
+      <c r="C66" s="10">
+        <f t="shared" si="1"/>
+        <v>4.8480083310251718</v>
+      </c>
+      <c r="D66" s="10">
+        <f t="shared" si="2"/>
+        <v>0.38386902096765946</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <f t="shared" si="0"/>
+        <v>1076.8499999999999</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C67" s="10">
+        <f t="shared" si="1"/>
+        <v>4.9552139680600709</v>
+      </c>
+      <c r="D67" s="10">
+        <f t="shared" si="2"/>
+        <v>0.47544469227460834</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <f t="shared" si="0"/>
+        <v>1126.8499999999999</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1400</v>
+      </c>
+      <c r="C68" s="10">
+        <f t="shared" si="1"/>
+        <v>5.059991453856993</v>
+      </c>
+      <c r="D68" s="10">
+        <f t="shared" si="2"/>
+        <v>0.58551414055875539</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <f t="shared" si="0"/>
+        <v>1226.8499999999999</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1500</v>
+      </c>
+      <c r="C69" s="10">
+        <f t="shared" si="1"/>
+        <v>5.2625530533469789</v>
+      </c>
+      <c r="D69" s="10">
+        <f t="shared" si="2"/>
+        <v>0.87218038276607379</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <f t="shared" si="0"/>
+        <v>1326.85</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1600</v>
+      </c>
+      <c r="C70" s="10">
+        <f t="shared" si="1"/>
+        <v>5.4565945798528794</v>
+      </c>
+      <c r="D70" s="10">
+        <f t="shared" si="2"/>
+        <v>1.2685320905283202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <f t="shared" si="0"/>
+        <v>1426.85</v>
+      </c>
+      <c r="B71" s="4">
+        <v>1700</v>
+      </c>
+      <c r="C71" s="10">
+        <f t="shared" si="1"/>
+        <v>5.6437771415424507</v>
+      </c>
+      <c r="D71" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8036000321546191</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <f t="shared" si="0"/>
+        <v>1526.85</v>
+      </c>
+      <c r="B72" s="4">
+        <v>1800</v>
+      </c>
+      <c r="C72" s="10">
+        <f t="shared" si="1"/>
+        <v>5.8268769306646302</v>
+      </c>
+      <c r="D72" s="10">
+        <f t="shared" si="2"/>
+        <v>2.5111395745057243</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <f t="shared" si="0"/>
+        <v>1626.85</v>
+      </c>
+      <c r="B73" s="5">
+        <v>1900</v>
+      </c>
+      <c r="C73" s="10">
+        <f t="shared" si="1"/>
+        <v>6.0101406498207908</v>
+      </c>
+      <c r="D73" s="10">
+        <f t="shared" si="2"/>
+        <v>3.4299888512182308</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -10734,10 +12489,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A35:G57"/>
+  <dimension ref="A35:G73"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10767,22 +12522,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>2.5760236885793599E-16</v>
+        <v>1.2922390805643999E-16</v>
       </c>
       <c r="B36" s="10">
-        <v>-7.4948181125319304E-13</v>
+        <v>-9.80535866543648E-13</v>
       </c>
       <c r="C36" s="10">
-        <v>7.7853258886762403E-10</v>
+        <v>3.1921415639571899E-9</v>
       </c>
       <c r="D36" s="10">
-        <v>-3.8467821264458699E-7</v>
+        <v>-6.1798310919839202E-6</v>
       </c>
       <c r="E36" s="10">
-        <v>1.6456211997066401E-4</v>
+        <v>1.07023532477279E-2</v>
       </c>
       <c r="F36" s="10">
-        <v>-4.18269223884387E-3</v>
+        <v>-0.108258923946027</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10792,371 +12547,1799 @@
     </row>
     <row r="39" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>-150</v>
-      </c>
-      <c r="B39" s="9">
-        <f>A39+273.15</f>
-        <v>123.14999999999998</v>
+        <f>B39-273.15</f>
+        <v>-98.149999999999977</v>
+      </c>
+      <c r="B39" s="4">
+        <v>175</v>
       </c>
       <c r="C39" s="10">
         <f>$A$36*POWER(B39,5)+$B$36*POWER(B39,4)+$C$36*POWER(B39,3)+$D$36*POWER(B39,2)+$E$36*POWER(B39,1)+$F$36</f>
-        <v>1.153809713895098E-2</v>
+        <v>1.5916050251430547</v>
       </c>
       <c r="D39" s="10">
         <f>$A$36*POWER(A39,5)+$B$36*POWER(C39,4)+$C$36*POWER(C39,3)+$D$36*POWER(C39,2)+$E$36*POWER(C39,1)+$F$36</f>
-        <v>-4.2003552362135307E-3</v>
+        <v>-9.1241823709323572E-2</v>
       </c>
       <c r="E39" s="3">
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>-100</v>
-      </c>
-      <c r="B40" s="9">
-        <f t="shared" ref="B40:B56" si="0">A40+273.15</f>
-        <v>173.14999999999998</v>
+      <c r="A40" s="2">
+        <f t="shared" ref="A40:A73" si="0">B40-273.15</f>
+        <v>-73.149999999999977</v>
+      </c>
+      <c r="B40" s="4">
+        <v>200</v>
       </c>
       <c r="C40" s="10">
-        <f t="shared" ref="C40:C56" si="1">$A$36*POWER(B40,5)+$B$36*POWER(B40,4)+$C$36*POWER(B40,3)+$D$36*POWER(B40,2)+$E$36*POWER(B40,1)+$F$36</f>
-        <v>1.6186163400590193E-2</v>
+        <f t="shared" ref="C40:C73" si="1">$A$36*POWER(B40,5)+$B$36*POWER(B40,4)+$C$36*POWER(B40,3)+$D$36*POWER(B40,2)+$E$36*POWER(B40,1)+$F$36</f>
+        <v>1.8090281086959621</v>
       </c>
       <c r="D40" s="10">
-        <f t="shared" ref="D40:D56" si="2">$A$36*POWER(A40,5)+$B$36*POWER(C40,4)+$C$36*POWER(C40,3)+$D$36*POWER(C40,2)+$E$36*POWER(C40,1)+$F$36</f>
-        <v>-4.1826047339483252E-3</v>
+        <f t="shared" ref="D40:D73" si="2">$A$36*POWER(A40,5)+$B$36*POWER(C40,4)+$C$36*POWER(C40,3)+$D$36*POWER(C40,2)+$E$36*POWER(C40,1)+$F$36</f>
+        <v>-8.891854186645172E-2</v>
       </c>
       <c r="E40" s="1">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>-50</v>
-      </c>
-      <c r="B41" s="9">
-        <f t="shared" si="0"/>
-        <v>223.14999999999998</v>
+      <c r="A41" s="2">
+        <f t="shared" si="0"/>
+        <v>-48.149999999999977</v>
+      </c>
+      <c r="B41" s="4">
+        <v>225</v>
       </c>
       <c r="C41" s="10">
         <f t="shared" si="1"/>
-        <v>2.0319060129241527E-2</v>
+        <v>2.0208386061002326</v>
       </c>
       <c r="D41" s="10">
         <f t="shared" si="2"/>
-        <v>-4.179429150786792E-3</v>
+        <v>-8.665643956821166E-2</v>
       </c>
       <c r="E41" s="1">
         <v>2.0400000000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>0</v>
-      </c>
-      <c r="B42" s="9">
-        <f t="shared" si="0"/>
-        <v>273.14999999999998</v>
+      <c r="A42" s="2">
+        <f t="shared" si="0"/>
+        <v>-23.149999999999977</v>
+      </c>
+      <c r="B42" s="4">
+        <v>250</v>
       </c>
       <c r="C42" s="10">
         <f t="shared" si="1"/>
-        <v>2.4152222444801284E-2</v>
+        <v>2.2272631336678095</v>
       </c>
       <c r="D42" s="10">
         <f t="shared" si="2"/>
-        <v>-4.1787179222996657E-3</v>
+        <v>-8.4452589022607799E-2</v>
       </c>
       <c r="E42" s="1">
         <v>2.4299999999999999E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>20</v>
-      </c>
-      <c r="B43" s="9">
-        <f t="shared" si="0"/>
-        <v>293.14999999999998</v>
+      <c r="A43" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8500000000000227</v>
+      </c>
+      <c r="B43" s="4">
+        <v>275</v>
       </c>
       <c r="C43" s="10">
         <f t="shared" si="1"/>
-        <v>2.5636401998694894E-2</v>
+        <v>2.4285204780952929</v>
       </c>
       <c r="D43" s="10">
         <f t="shared" si="2"/>
-        <v>-4.1784728866620267E-3</v>
+        <v>-8.2304441096296338E-2</v>
       </c>
       <c r="E43" s="1">
         <v>2.5700000000000001E-2</v>
       </c>
       <c r="G43" s="10">
         <f>$D$36*POWER(B43,2)+$E$36*POWER(B43,1)+$F$36</f>
-        <v>1.1000631483079892E-2</v>
+        <v>2.3675384928478613</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>40</v>
-      </c>
-      <c r="B44" s="9">
-        <f t="shared" si="0"/>
-        <v>313.14999999999998</v>
+      <c r="A44" s="2">
+        <f t="shared" si="0"/>
+        <v>26.850000000000023</v>
+      </c>
+      <c r="B44" s="4">
+        <v>300</v>
       </c>
       <c r="C44" s="10">
         <f t="shared" si="1"/>
-        <v>2.710322218629023E-2</v>
+        <v>2.6248217478982077</v>
       </c>
       <c r="D44" s="10">
         <f t="shared" si="2"/>
-        <v>-4.1782059792234982E-3</v>
+        <v>-8.0209672019198236E-2</v>
       </c>
       <c r="E44" s="1">
         <v>2.7099999999999999E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>60</v>
-      </c>
-      <c r="B45" s="9">
-        <f t="shared" si="0"/>
-        <v>333.15</v>
+      <c r="A45" s="2">
+        <f t="shared" si="0"/>
+        <v>51.850000000000023</v>
+      </c>
+      <c r="B45" s="4">
+        <v>325</v>
       </c>
       <c r="C45" s="10">
         <f t="shared" si="1"/>
-        <v>2.8557804843951269E-2</v>
+        <v>2.8163705248452682</v>
       </c>
       <c r="D45" s="10">
         <f t="shared" si="2"/>
-        <v>-4.1777927080405156E-3</v>
+        <v>-7.8166030104816125E-2</v>
       </c>
       <c r="E45" s="1">
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>80</v>
-      </c>
-      <c r="B46" s="9">
-        <f t="shared" si="0"/>
-        <v>353.15</v>
+      <c r="A46" s="2">
+        <f t="shared" si="0"/>
+        <v>76.850000000000023</v>
+      </c>
+      <c r="B46" s="4">
+        <v>350</v>
       </c>
       <c r="C46" s="10">
         <f t="shared" si="1"/>
-        <v>3.0003942626977483E-2</v>
+        <v>3.0033630153926469</v>
       </c>
       <c r="D46" s="10">
         <f t="shared" si="2"/>
-        <v>-4.1769109612757906E-3</v>
+        <v>-7.6171182485323952E-2</v>
       </c>
       <c r="E46" s="1">
         <v>2.9899999999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>100</v>
-      </c>
-      <c r="B47" s="9">
-        <f t="shared" si="0"/>
-        <v>373.15</v>
+      <c r="A47" s="2">
+        <f t="shared" si="0"/>
+        <v>101.85000000000002</v>
+      </c>
+      <c r="B47" s="4">
+        <v>375</v>
       </c>
       <c r="C47" s="10">
         <f t="shared" si="1"/>
-        <v>3.1444197928913516E-2</v>
+        <v>3.1859882021182422</v>
       </c>
       <c r="D47" s="10">
         <f t="shared" si="2"/>
-        <v>-4.1749420716049339E-3</v>
+        <v>-7.4222561860547487E-2</v>
       </c>
       <c r="E47" s="1">
         <v>3.1399999999999997E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>120</v>
-      </c>
-      <c r="B48" s="9">
-        <f t="shared" si="0"/>
-        <v>393.15</v>
+      <c r="A48" s="2">
+        <f t="shared" si="0"/>
+        <v>126.85000000000002</v>
+      </c>
+      <c r="B48" s="4">
+        <v>400</v>
       </c>
       <c r="C48" s="10">
         <f t="shared" si="1"/>
-        <v>3.2880001800858712E-2</v>
+        <v>3.3644279951559466</v>
       </c>
       <c r="D48" s="10">
         <f t="shared" si="2"/>
-        <v>-4.1708718806239492E-3</v>
+        <v>-7.2317213260002317E-2</v>
       </c>
       <c r="E48" s="1">
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>140</v>
-      </c>
-      <c r="B49" s="9">
-        <f t="shared" si="0"/>
-        <v>413.15</v>
+      <c r="A49" s="2">
+        <f t="shared" si="0"/>
+        <v>176.85000000000002</v>
+      </c>
+      <c r="B49" s="4">
+        <v>450</v>
       </c>
       <c r="C49" s="10">
         <f t="shared" si="1"/>
-        <v>3.4311752870776917E-2</v>
+        <v>3.7094445870888104</v>
       </c>
       <c r="D49" s="10">
         <f t="shared" si="2"/>
-        <v>-4.1631918032575014E-3</v>
+        <v>-6.8621654555492198E-2</v>
       </c>
       <c r="E49" s="1">
         <v>3.4299999999999997E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>160</v>
-      </c>
-      <c r="B50" s="9">
-        <f t="shared" si="0"/>
-        <v>433.15</v>
+      <c r="A50" s="2">
+        <f t="shared" si="0"/>
+        <v>226.85000000000002</v>
+      </c>
+      <c r="B50" s="4">
+        <v>500</v>
       </c>
       <c r="C50" s="10">
         <f t="shared" si="1"/>
-        <v>3.5738916262805988E-2</v>
+        <v>4.0397323778843779</v>
       </c>
       <c r="D50" s="10">
         <f t="shared" si="2"/>
-        <v>-4.1497998921679064E-3</v>
+        <v>-6.5047290908007538E-2</v>
       </c>
       <c r="E50" s="1">
         <v>3.5799999999999998E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>180</v>
-      </c>
-      <c r="B51" s="9">
-        <f t="shared" si="0"/>
-        <v>453.15</v>
+      <c r="A51" s="2">
+        <f t="shared" si="0"/>
+        <v>276.85000000000002</v>
+      </c>
+      <c r="B51" s="4">
+        <v>550</v>
       </c>
       <c r="C51" s="10">
         <f t="shared" si="1"/>
-        <v>3.7160122516567563E-2</v>
+        <v>4.356507486924774</v>
       </c>
       <c r="D51" s="10">
         <f t="shared" si="2"/>
-        <v>-4.1279019021648244E-3</v>
+        <v>-6.1540898823149857E-2</v>
       </c>
       <c r="E51" s="1">
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
-        <v>200</v>
-      </c>
-      <c r="B52" s="9">
-        <f t="shared" si="0"/>
-        <v>473.15</v>
+      <c r="A52" s="2">
+        <f t="shared" si="0"/>
+        <v>326.85000000000002</v>
+      </c>
+      <c r="B52" s="4">
+        <v>600</v>
       </c>
       <c r="C52" s="10">
         <f t="shared" si="1"/>
-        <v>3.8573266506476536E-2</v>
+        <v>4.660887412177666</v>
       </c>
       <c r="D52" s="10">
         <f t="shared" si="2"/>
-        <v>-4.0939123546156666E-3</v>
+        <v>-5.8028345033684973E-2</v>
       </c>
       <c r="E52" s="1">
         <v>3.8600000000000002E-2</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>250</v>
-      </c>
-      <c r="B53" s="9">
-        <f t="shared" si="0"/>
-        <v>523.15</v>
+      <c r="A53" s="2">
+        <f t="shared" si="0"/>
+        <v>376.85</v>
+      </c>
+      <c r="B53" s="4">
+        <v>650</v>
       </c>
       <c r="C53" s="10">
         <f t="shared" si="1"/>
-        <v>4.2051561331099281E-2</v>
+        <v>4.9538958760928127</v>
       </c>
       <c r="D53" s="10">
         <f t="shared" si="2"/>
-        <v>-3.9242080116069188E-3</v>
+        <v>-5.4409685296671832E-2</v>
       </c>
       <c r="E53" s="1">
         <v>4.2099999999999999E-2</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>300</v>
-      </c>
-      <c r="B54" s="9">
-        <f t="shared" si="0"/>
-        <v>573.15</v>
+      <c r="A54" s="2">
+        <f t="shared" si="0"/>
+        <v>426.85</v>
+      </c>
+      <c r="B54" s="4">
+        <v>700</v>
       </c>
       <c r="C54" s="10">
         <f t="shared" si="1"/>
-        <v>4.5405340371304441E-2</v>
+        <v>5.2364676714986134</v>
       </c>
       <c r="D54" s="10">
         <f t="shared" si="2"/>
-        <v>-3.5492472764466075E-3</v>
+        <v>-5.0554263665474664E-2</v>
       </c>
       <c r="E54" s="1">
         <v>4.5400000000000003E-2</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>350</v>
-      </c>
-      <c r="B55" s="9">
-        <f t="shared" si="0"/>
-        <v>623.15</v>
+      <c r="A55" s="2">
+        <f t="shared" si="0"/>
+        <v>476.85</v>
+      </c>
+      <c r="B55" s="4">
+        <v>750</v>
       </c>
       <c r="C55" s="10">
         <f t="shared" si="1"/>
-        <v>4.8567735545854078E-2</v>
+        <v>5.5094535074986677</v>
       </c>
       <c r="D55" s="10">
         <f t="shared" si="2"/>
-        <v>-2.8217247949336027E-3</v>
+        <v>-4.629581217990953E-2</v>
       </c>
       <c r="E55" s="1">
         <v>4.8500000000000001E-2</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>400</v>
-      </c>
-      <c r="B56" s="9">
-        <f t="shared" si="0"/>
-        <v>673.15</v>
+      <c r="A56" s="2">
+        <f t="shared" si="0"/>
+        <v>526.85</v>
+      </c>
+      <c r="B56" s="4">
+        <v>800</v>
       </c>
       <c r="C56" s="10">
         <f t="shared" si="1"/>
-        <v>5.1470190100105291E-2</v>
+        <v>5.7736248553683209</v>
       </c>
       <c r="D56" s="10">
         <f t="shared" si="2"/>
-        <v>-1.536374957116296E-3</v>
+        <v>-4.142755092474372E-2</v>
       </c>
       <c r="E56" s="6">
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <f t="shared" si="0"/>
+        <v>576.85</v>
+      </c>
+      <c r="B57" s="4">
+        <v>850</v>
+      </c>
+      <c r="C57" s="10">
+        <f t="shared" si="1"/>
+        <v>6.0296787944512173</v>
+      </c>
+      <c r="D57" s="10">
+        <f t="shared" si="2"/>
+        <v>-3.5697288413027634E-2</v>
+      </c>
+      <c r="E57" s="6">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <f t="shared" si="0"/>
+        <v>626.85</v>
+      </c>
+      <c r="B58" s="4">
+        <v>900</v>
+      </c>
+      <c r="C58" s="10">
+        <f t="shared" si="1"/>
+        <v>6.2782428580558589</v>
+      </c>
+      <c r="D58" s="10">
+        <f t="shared" si="2"/>
+        <v>-2.8802522256342597E-2</v>
+      </c>
+      <c r="E58" s="6">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <f t="shared" si="0"/>
+        <v>676.85</v>
+      </c>
+      <c r="B59" s="4">
+        <v>950</v>
+      </c>
+      <c r="C59" s="10">
+        <f t="shared" si="1"/>
+        <v>6.5198798793521435</v>
+      </c>
+      <c r="D59" s="10">
+        <f t="shared" si="2"/>
+        <v>-2.038554008903834E-2</v>
+      </c>
+      <c r="E59" s="6">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <f t="shared" si="0"/>
+        <v>726.85</v>
+      </c>
+      <c r="B60" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C60" s="10">
+        <f t="shared" si="1"/>
+        <v>6.7550928372679353</v>
+      </c>
+      <c r="D60" s="10">
+        <f t="shared" si="2"/>
+        <v>-1.0028520717952502E-2</v>
+      </c>
+      <c r="E60" s="6">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <f t="shared" si="0"/>
+        <v>776.85</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1050</v>
+      </c>
+      <c r="C61" s="10">
+        <f t="shared" si="1"/>
+        <v>6.9843297023855975</v>
+      </c>
+      <c r="D61" s="10">
+        <f t="shared" si="2"/>
+        <v>2.7513645270027393E-3</v>
+      </c>
+      <c r="E61" s="6">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <f t="shared" si="0"/>
+        <v>826.85</v>
+      </c>
+      <c r="B62" s="4">
+        <v>1100</v>
+      </c>
+      <c r="C62" s="10">
+        <f t="shared" si="1"/>
+        <v>7.2079882828385609</v>
+      </c>
+      <c r="D62" s="10">
+        <f t="shared" si="2"/>
+        <v>1.850685026259867E-2</v>
+      </c>
+      <c r="E62" s="6">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <f t="shared" si="0"/>
+        <v>876.85</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1150</v>
+      </c>
+      <c r="C63" s="10">
+        <f t="shared" si="1"/>
+        <v>7.4264210702078683</v>
+      </c>
+      <c r="D63" s="10">
+        <f t="shared" si="2"/>
+        <v>3.7865475360646092E-2</v>
+      </c>
+      <c r="E63" s="6">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <f t="shared" si="0"/>
+        <v>926.85</v>
+      </c>
+      <c r="B64" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C64" s="10">
+        <f t="shared" si="1"/>
+        <v>7.6399400854187229</v>
+      </c>
+      <c r="D64" s="10">
+        <f t="shared" si="2"/>
+        <v>6.1534481110652448E-2</v>
+      </c>
+      <c r="E64" s="6">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <f t="shared" si="0"/>
+        <v>976.85</v>
+      </c>
+      <c r="B65" s="16">
+        <v>1250</v>
+      </c>
+      <c r="C65" s="10">
+        <f t="shared" si="1"/>
+        <v>7.8488217246370526</v>
+      </c>
+      <c r="D65" s="10">
+        <f t="shared" si="2"/>
+        <v>9.0305709250301305E-2</v>
+      </c>
+      <c r="E65" s="6">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <f t="shared" si="0"/>
+        <v>1026.8499999999999</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1300</v>
+      </c>
+      <c r="C66" s="10">
+        <f t="shared" si="1"/>
+        <v>8.0533116051660496</v>
+      </c>
+      <c r="D66" s="10">
+        <f t="shared" si="2"/>
+        <v>0.12506049987542173</v>
+      </c>
+      <c r="E66" s="6">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <f t="shared" si="0"/>
+        <v>1076.8499999999999</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C67" s="10">
+        <f t="shared" si="1"/>
+        <v>8.2536294113427253</v>
+      </c>
+      <c r="D67" s="10">
+        <f t="shared" si="2"/>
+        <v>0.16677458923955624</v>
+      </c>
+      <c r="E67" s="6">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <f t="shared" si="0"/>
+        <v>1126.8499999999999</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1400</v>
+      </c>
+      <c r="C68" s="10">
+        <f t="shared" si="1"/>
+        <v>8.4499737404344692</v>
+      </c>
+      <c r="D68" s="10">
+        <f t="shared" si="2"/>
+        <v>0.21652300745192588</v>
+      </c>
+      <c r="E68" s="6">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <f t="shared" si="0"/>
+        <v>1226.8499999999999</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1500</v>
+      </c>
+      <c r="C69" s="10">
+        <f t="shared" si="1"/>
+        <v>8.8314599964638916</v>
+      </c>
+      <c r="D69" s="10">
+        <f t="shared" si="2"/>
+        <v>0.3449488056739905</v>
+      </c>
+      <c r="E69" s="6">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <f t="shared" si="0"/>
+        <v>1326.85</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1600</v>
+      </c>
+      <c r="C70" s="10">
+        <f t="shared" si="1"/>
+        <v>9.1991215540698743</v>
+      </c>
+      <c r="D70" s="10">
+        <f t="shared" si="2"/>
+        <v>0.52111011935394702</v>
+      </c>
+      <c r="E70" s="6">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <f t="shared" si="0"/>
+        <v>1426.85</v>
+      </c>
+      <c r="B71" s="4">
+        <v>1700</v>
+      </c>
+      <c r="C71" s="10">
+        <f t="shared" si="1"/>
+        <v>9.5542823383332696</v>
+      </c>
+      <c r="D71" s="10">
+        <f t="shared" si="2"/>
+        <v>0.75768131310192099</v>
+      </c>
+      <c r="E71" s="6">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <f t="shared" si="0"/>
+        <v>1526.85</v>
+      </c>
+      <c r="B72" s="4">
+        <v>1800</v>
+      </c>
+      <c r="C72" s="10">
+        <f t="shared" si="1"/>
+        <v>9.8983940872899385</v>
+      </c>
+      <c r="D72" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0693956035784637</v>
+      </c>
+      <c r="E72" s="6">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <f t="shared" si="0"/>
+        <v>1626.85</v>
+      </c>
+      <c r="B73" s="5">
+        <v>1900</v>
+      </c>
+      <c r="C73" s="10">
+        <f t="shared" si="1"/>
+        <v>10.233191420620352</v>
+      </c>
+      <c r="D73" s="10">
+        <f t="shared" si="2"/>
+        <v>1.4732017676813038</v>
+      </c>
+      <c r="E73" s="6">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>175</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.0023</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.71519999999999995</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.401</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.1819999999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.593</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2.0169999999999999</v>
+      </c>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>200</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.0024999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.71540000000000004</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.401</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.329</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.8089999999999999</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.753</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="J3" s="15">
+        <v>10.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>225</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.0026999999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.71560000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.401</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.4670000000000001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.569</v>
+      </c>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>250</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.0031000000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.401</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.599</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.2269999999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.1319999999999999</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="J5" s="15">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>275</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.0038</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.7167</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.401</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.4279999999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.343</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.284</v>
+      </c>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>300</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.0048999999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.71779999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.8460000000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.6240000000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.177</v>
+      </c>
+      <c r="J7" s="15">
+        <v>22.07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>325</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0063</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.71919999999999995</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.962</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.8159999999999998</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.8069999999999999</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>350</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.0082</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.72109999999999996</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.0750000000000002</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.0030000000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.056</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="J9" s="15">
+        <v>29.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>375</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.0105999999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.72350000000000003</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.397</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.181</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3.1859999999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2.3170000000000002</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>400</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.0135000000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.72640000000000005</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.395</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.286</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.3650000000000002</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2.5910000000000002</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="J11" s="15">
+        <v>36.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>450</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.0206</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.73350000000000004</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.391</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.4849999999999999</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3.1680000000000001</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.78439999999999999</v>
+      </c>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>500</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.0295000000000001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.74239999999999995</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.387</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4.0410000000000004</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3.782</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>550</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.0398000000000001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.75270000000000004</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.381</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.8490000000000002</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4.3570000000000002</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4.4390000000000001</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.64180000000000004</v>
+      </c>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>600</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.0510999999999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.3759999999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.0169999999999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4.6609999999999996</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5.1280000000000001</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.58830000000000005</v>
+      </c>
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>650</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.0629</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.77580000000000005</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.1779999999999999</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4.9539999999999997</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5.8529999999999998</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>700</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.075</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.78790000000000004</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.3640000000000001</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3.3319999999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5.2359999999999998</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6.6070000000000002</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.50429999999999997</v>
+      </c>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>750</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.087</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.79990000000000006</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.359</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3.4820000000000002</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5.5090000000000003</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="H18" s="1">
+        <v>7.399</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.47060000000000002</v>
+      </c>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>800</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.0987</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.81159999999999999</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.3540000000000001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3.6240000000000001</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5.774</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="H19" s="1">
+        <v>8.2140000000000004</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.44119999999999998</v>
+      </c>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>850</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.1101000000000001</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.349</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3.7629999999999999</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6.03</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="H20" s="1">
+        <v>9.0609999999999999</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.4153</v>
+      </c>
+      <c r="J20" s="15"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>900</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.1209</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3.8969999999999998</v>
+      </c>
+      <c r="F21" s="1">
+        <v>6.2759999999999998</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="H21" s="1">
+        <v>9.9359999999999999</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.39219999999999999</v>
+      </c>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>950</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.1313</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4.0259999999999998</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6.52</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="H22" s="1">
+        <v>10.83</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.37159999999999999</v>
+      </c>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.1411</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.3360000000000001</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.1529999999999996</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6.7539999999999996</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="H23" s="1">
+        <v>11.76</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>1050</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.1501999999999999</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.333</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4.2759999999999998</v>
+      </c>
+      <c r="F24" s="1">
+        <v>6.9850000000000003</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="H24" s="1">
+        <v>12.72</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.3362</v>
+      </c>
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>1100</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.1589</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.329</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4.3959999999999999</v>
+      </c>
+      <c r="F25" s="1">
+        <v>7.2089999999999996</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="H25" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.32090000000000002</v>
+      </c>
+      <c r="J25" s="15"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>1150</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.167</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.87990000000000002</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4.5110000000000001</v>
+      </c>
+      <c r="F26" s="1">
+        <v>7.4269999999999996</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="H26" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.30690000000000001</v>
+      </c>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>1200</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.1746000000000001</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.323</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4.6260000000000003</v>
+      </c>
+      <c r="F27" s="1">
+        <v>7.64</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="H27" s="1">
+        <v>15.73</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="J27" s="15"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
+        <v>1250</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1.1817</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1.321</v>
+      </c>
+      <c r="E28" s="11">
+        <v>4.7359999999999998</v>
+      </c>
+      <c r="F28" s="11">
+        <v>7.8490000000000002</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H28" s="11">
+        <v>16.77</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0.28239999999999998</v>
+      </c>
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>1300</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.1883999999999999</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.319</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4.8460000000000001</v>
+      </c>
+      <c r="F29" s="1">
+        <v>8.0540000000000003</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="H29" s="1">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.27150000000000002</v>
+      </c>
+      <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>1350</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.1946000000000001</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.3160000000000001</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4.952</v>
+      </c>
+      <c r="F30" s="1">
+        <v>8.2530000000000001</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="H30" s="1">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.26150000000000001</v>
+      </c>
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>1400</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.2004999999999999</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.91339999999999999</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5.0570000000000004</v>
+      </c>
+      <c r="F31" s="1">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="H31" s="1">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.25209999999999999</v>
+      </c>
+      <c r="J31" s="15"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>1500</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.2112000000000001</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.3109999999999999</v>
+      </c>
+      <c r="E32" s="1">
+        <v>5.2640000000000002</v>
+      </c>
+      <c r="F32" s="1">
+        <v>8.8309999999999995</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="H32" s="1">
+        <v>22.36</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.23530000000000001</v>
+      </c>
+      <c r="J32" s="15"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>1600</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1.2206999999999999</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.3080000000000001</v>
+      </c>
+      <c r="E33" s="1">
+        <v>5.4569999999999999</v>
+      </c>
+      <c r="F33" s="1">
+        <v>9.1989999999999998</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="H33" s="1">
+        <v>24.74</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.22059999999999999</v>
+      </c>
+      <c r="J33" s="15"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>1700</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1.2293000000000001</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.94220000000000004</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="E34" s="1">
+        <v>5.6459999999999999</v>
+      </c>
+      <c r="F34" s="1">
+        <v>9.5540000000000003</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="H34" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.20760000000000001</v>
+      </c>
+      <c r="J34" s="15"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>1800</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.94989999999999997</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.302</v>
+      </c>
+      <c r="E35" s="1">
+        <v>5.8289999999999997</v>
+      </c>
+      <c r="F35" s="1">
+        <v>9.8989999999999991</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="H35" s="1">
+        <v>29.72</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.1961</v>
+      </c>
+      <c r="J35" s="15"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>1900</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1.244</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0.95689999999999997</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="E36" s="6">
+        <v>6.008</v>
+      </c>
+      <c r="F36" s="6">
+        <v>10.233000000000001</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.73</v>
+      </c>
+      <c r="H36" s="6">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="J36" s="18"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/air_prop.xlsx
+++ b/doc/air_prop.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18435" windowHeight="10200" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18435" windowHeight="10200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Entrada" sheetId="1" r:id="rId1"/>
@@ -1683,47 +1683,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout>
         <c:manualLayout>
+          <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38961891260339643"/>
-          <c:y val="1.9028746606704072E-2"/>
+          <c:x val="3.6825551379137289E-2"/>
+          <c:y val="0.14084580856467721"/>
+          <c:w val="0.92357322951690735"/>
+          <c:h val="0.81969994574823557"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1775,7 +1747,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1947,6 +1920,169 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-53BF-4551-A252-D4038A098863}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Polinomio</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>density!$B$39:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>123.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>173.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>223.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>273.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>293.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>313.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>333.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>353.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>373.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>393.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>413.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>433.15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>453.15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>473.15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>523.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>573.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>623.15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>673.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>density!$C$39:$C$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2.6886516886314791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0307922940496921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5875327499213467</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2905452597157456</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2007428797977155</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1234326181679846</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0563927055822973</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99772815246361368</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9458452182658359</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89942588083758856</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85740230578595344</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.81893131584023671</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7833688602157256</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.75024448397743448</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.67627972515528612</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.61366272016940115</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.56247638769467656</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.52260370093814501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C992-4C1D-8D96-D0711AC442B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9431,15 +9567,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
+      <xdr:colOff>161924</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9933,7 +10069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="D2" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A37"/>
     </sheetView>
   </sheetViews>
@@ -10828,8 +10964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A35:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10844,15 +10980,23 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>314.55916966863202</v>
-      </c>
-      <c r="B36">
-        <v>-0.98115089269056399</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+        <v>-6.6486031886552598E-14</v>
+      </c>
+      <c r="B36" s="10">
+        <v>1.8919937609291901E-10</v>
+      </c>
+      <c r="C36" s="10">
+        <v>-2.14542924896456E-7</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1.2345238441682701E-4</v>
+      </c>
+      <c r="E36" s="10">
+        <v>-3.7837036735780802E-2</v>
+      </c>
+      <c r="F36" s="10">
+        <v>5.8350781029802796</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
@@ -10868,12 +11012,8 @@
         <v>123.14999999999998</v>
       </c>
       <c r="C39" s="10">
-        <f>$A$36*POWER(B39,$B$36)</f>
-        <v>2.7968601829408017</v>
-      </c>
-      <c r="D39" s="10">
-        <f>$A$36*POWER(A39,5)+$B$36*POWER(C39,4)+$C$36*POWER(C39,3)+$D$36*POWER(C39,2)+$E$36*POWER(C39,1)+$F$36</f>
-        <v>-23886836946771.781</v>
+        <f>$A$36*POWER(B39,5)+$B$36*POWER(B39,4)+$C$36*POWER(B39,3)+$D$36*POWER(B39,2)+$E$36*POWER(B39,1)+$F$36</f>
+        <v>2.6886516886314791</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10885,12 +11025,8 @@
         <v>173.14999999999998</v>
       </c>
       <c r="C40" s="10">
-        <f t="shared" ref="C40:C56" si="1">$A$36*POWER(B40,$B$36)</f>
-        <v>2.0020370931817246</v>
-      </c>
-      <c r="D40" s="10">
-        <f t="shared" ref="D40:D56" si="2">$A$36*POWER(A40,5)+$B$36*POWER(C40,4)+$C$36*POWER(C40,3)+$D$36*POWER(C40,2)+$E$36*POWER(C40,1)+$F$36</f>
-        <v>-3145591696702.083</v>
+        <f t="shared" ref="C40:C56" si="1">$A$36*POWER(B40,5)+$B$36*POWER(B40,4)+$C$36*POWER(B40,3)+$D$36*POWER(B40,2)+$E$36*POWER(B40,1)+$F$36</f>
+        <v>2.0307922940496921</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10903,11 +11039,7 @@
       </c>
       <c r="C41" s="10">
         <f t="shared" si="1"/>
-        <v>1.5608976020042145</v>
-      </c>
-      <c r="D41" s="10">
-        <f t="shared" si="2"/>
-        <v>-98299740527.271667</v>
+        <v>1.5875327499213467</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10920,11 +11052,7 @@
       </c>
       <c r="C42" s="10">
         <f t="shared" si="1"/>
-        <v>1.2800446908885788</v>
-      </c>
-      <c r="D42" s="10">
-        <f t="shared" si="2"/>
-        <v>-2.6341247200280797</v>
+        <v>1.2905452597157456</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10937,11 +11065,7 @@
       </c>
       <c r="C43" s="10">
         <f t="shared" si="1"/>
-        <v>1.1943040182064302</v>
-      </c>
-      <c r="D43" s="10">
-        <f t="shared" si="2"/>
-        <v>1006589340.9434624</v>
+        <v>1.2007428797977155</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10954,11 +11078,7 @@
       </c>
       <c r="C44" s="10">
         <f t="shared" si="1"/>
-        <v>1.1194189094720561</v>
-      </c>
-      <c r="D44" s="10">
-        <f t="shared" si="2"/>
-        <v>32210858972.527264</v>
+        <v>1.1234326181679846</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10971,11 +11091,7 @@
       </c>
       <c r="C45" s="10">
         <f t="shared" si="1"/>
-        <v>1.0534454235443167</v>
-      </c>
-      <c r="D45" s="10">
-        <f t="shared" si="2"/>
-        <v>244601210333.11993</v>
+        <v>1.0563927055822973</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10988,11 +11104,7 @@
       </c>
       <c r="C46" s="10">
         <f t="shared" si="1"/>
-        <v>0.99487815680676406</v>
-      </c>
-      <c r="D46" s="10">
-        <f t="shared" si="2"/>
-        <v>1030747487169.2123</v>
+        <v>0.99772815246361368</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11005,11 +11117,7 @@
       </c>
       <c r="C47" s="10">
         <f t="shared" si="1"/>
-        <v>0.94253310023635262</v>
-      </c>
-      <c r="D47" s="10">
-        <f t="shared" si="2"/>
-        <v>3145591696685.5459</v>
+        <v>0.9458452182658359</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11022,14 +11130,10 @@
       </c>
       <c r="C48" s="10">
         <f t="shared" si="1"/>
-        <v>0.89546615763738924</v>
-      </c>
-      <c r="D48" s="10">
-        <f t="shared" si="2"/>
-        <v>7827238730697.873</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.89942588083758856</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>140</v>
       </c>
@@ -11039,14 +11143,10 @@
       </c>
       <c r="C49" s="10">
         <f t="shared" si="1"/>
-        <v>0.85291526750532931</v>
-      </c>
-      <c r="D49" s="10">
-        <f t="shared" si="2"/>
-        <v>16917747086785.715</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.85740230578595344</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>160</v>
       </c>
@@ -11056,14 +11156,10 @@
       </c>
       <c r="C50" s="10">
         <f t="shared" si="1"/>
-        <v>0.81425851648956737</v>
-      </c>
-      <c r="D50" s="10">
-        <f t="shared" si="2"/>
-        <v>32983919589445.121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.81893131584023671</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>180</v>
       </c>
@@ -11073,14 +11169,10 @@
       </c>
       <c r="C51" s="10">
         <f t="shared" si="1"/>
-        <v>0.77898331498449602</v>
-      </c>
-      <c r="D51" s="10">
-        <f t="shared" si="2"/>
-        <v>59438094111241.406</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.7833688602157256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>200</v>
       </c>
@@ -11090,14 +11182,10 @@
       </c>
       <c r="C52" s="10">
         <f t="shared" si="1"/>
-        <v>0.74666336911006459</v>
-      </c>
-      <c r="D52" s="10">
-        <f t="shared" si="2"/>
-        <v>100658934293961.94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.75024448397743448</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>250</v>
       </c>
@@ -11107,14 +11195,10 @@
       </c>
       <c r="C53" s="10">
         <f t="shared" si="1"/>
-        <v>0.67658100006067423</v>
-      </c>
-      <c r="D53" s="10">
-        <f t="shared" si="2"/>
-        <v>307186689129523.25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.67627972515528612</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>300</v>
       </c>
@@ -11124,14 +11208,10 @@
       </c>
       <c r="C54" s="10">
         <f t="shared" si="1"/>
-        <v>0.61862141229750611</v>
-      </c>
-      <c r="D54" s="10">
-        <f t="shared" si="2"/>
-        <v>764378782294775.75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.61366272016940115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>350</v>
       </c>
@@ -11141,14 +11221,10 @@
       </c>
       <c r="C55" s="10">
         <f t="shared" si="1"/>
-        <v>0.56988250704358701</v>
-      </c>
-      <c r="D55" s="10">
-        <f t="shared" si="2"/>
-        <v>1652123738943968.3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.56247638769467656</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>400</v>
       </c>
@@ -11158,14 +11234,10 @@
       </c>
       <c r="C56" s="10">
         <f t="shared" si="1"/>
-        <v>0.52832101188228975</v>
-      </c>
-      <c r="D56" s="10">
-        <f t="shared" si="2"/>
-        <v>3221085897406792</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>0.52260370093814501</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -12491,7 +12563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A35:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C13" workbookViewId="0">
       <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
